--- a/woniuBoss/data/woniuBoss_test_cases.xlsx
+++ b/woniuBoss/data/woniuBoss_test_cases.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zilong/Documents/蜗牛Boss测试/Git/woniuBoss/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{240A4A15-4497-474D-A39C-41A2206CE1E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4A9C66-2831-5348-BB2C-12D7EA3A3543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3560" yWindow="4760" windowWidth="30720" windowHeight="17920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="30720" windowHeight="17920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="student" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="76">
   <si>
     <t>用例编号</t>
   </si>
@@ -175,6 +176,5818 @@
     <t>userName=admin
 userPass=
 checkcode=0000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试入口的接口</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.114.220:8080/WoniuBoss2.5/student</t>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>API</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预期响应码</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STUSDENT-BASIC-002</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STUSDENT-BASIC-001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STUSDENT-BASIC-003</t>
+  </si>
+  <si>
+    <t>STUSDENT-BASIC-004</t>
+  </si>
+  <si>
+    <r>
+      <t>pageSize=10
+pageIndex=1
+stuName=
+stuNo=
+stuClass=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+orientation=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+stuStatus=</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuInfo</t>
+  </si>
+  <si>
+    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuInfo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"totalRow":19,"pageNumber":1,"firstPage":true,"lastPage":false,"totalPage":2,"pageSize":10,"list":[{"QQ":"850900362","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":1275,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李姣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":"WNCDC034","picture":"","emergency_person":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>辜水容</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冷佩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"51382219930927716X","student_no":"WNCD201805038","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>过程设备与控制工程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西南科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"2016-06-30","tel":"18382110815","emergency_tel":"18782261767","age":"25","email":null,"status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在校学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"},{"QQ":"0","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":1274,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>曾超</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":"WNCDC034","picture":"","emergency_person":"18510295804","student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李劲昆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"510703199408060057","student_no":"WNCD201805037","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应用化学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天津商业大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"2016-05-12","tel":"18510295804","emergency_tel":"13350022197","age":"23","email":null,"status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在校学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"},{"QQ":"294565674","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":1273,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汤雪娜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":"WNCDC034","picture":"","emergency_person":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仇也</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>崔宏飞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"211421199306305419","student_no":"WNCD201805036","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机械制造及其自动化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>江苏大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"2016-07-01","tel":"18352860351","emergency_tel":"18352530176","age":"25","email":null,"status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在校学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"},{"QQ":"0","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":1272,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刘雪梅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":"WNCDC034","picture":"","emergency_person":null,"student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李杨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":null,"student_no":"WNCD201805039","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算机科学与技术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西南石油大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":null,"tel":"18328075093","emergency_tel":null,"age":null,"email":null,"status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在校学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"},{"QQ":"517534662","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":1271,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李姣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":"WNCDC034","picture":"","emergency_person":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>袁小平</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>袁铃贵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"511681199408250031","student_no":"WNCD201805034","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测控技术与仪器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攀枝花学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"2017-06-30","tel":"18281212590","emergency_tel":"13982625085","age":"24","email":null,"status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在校学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"},{"QQ":"0","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大专</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":1270,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郑雪娇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":"WNCDC034","picture":"","emergency_person":null,"student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刘吉斌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"340102199603164512","student_no":"WNCD201805033","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>环境艺术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>合肥学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"2015-07-01","tel":"18505697875","emergency_tel":null,"age":null,"email":null,"status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在校学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"},{"QQ":"452959229","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":1269,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汤雪娜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":"WNCDC034","picture":"","emergency_person":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赖真洪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赖敏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"510104199105014575","student_no":"WNCD201805032","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件工程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电子科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"2014-07-01","tel":"18780219485","emergency_tel":"13608020985","age":"27","email":null,"status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在校学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"},{"QQ":"437610059","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":1268,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郑雪娇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":"WNCDC034","picture":"","emergency_person":null,"student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>翁青</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"429006199204015796","student_no":"WNCD201805031","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动物生物技术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>武汉轻工大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"2014-07-01","tel":"17671017674","emergency_tel":null,"age":null,"email":null,"status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在校学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"},{"QQ":"865152577","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":1266,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李姣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":"WNCDC034","picture":"","emergency_person":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>母亲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈浩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"513030199201044432","student_no":"WNCD201805030","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电子信息工程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四川航天职业学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"2015-06-30","tel":"15756341068","emergency_tel":"13668384097","age":null,"email":null,"status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在校学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"},{"QQ":"0","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":1265,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郑雪娇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":"WNCDC034","picture":"","emergency_person":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>曹利春</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苏黎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"510113198808066218","student_no":"WNCD201805026","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自动化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西南科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"2012-07-01","tel":"18048576832","emergency_tel":"18048595329","age":"30","email":"350023015@qq.com","status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在校学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"}]}</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pageSize=10
+pageIndex=1
+stuName=
+stuNo=
+stuClass=WNCDC027</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>orientation=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">全部
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stuStatus=</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"totalRow":2,"pageNumber":1,"firstPage":true,"lastPage":true,"totalPage":1,"pageSize":10,"list":[{"QQ":null,"orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大专</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":584,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张婷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":"WNCDC027","picture":"CD/201706/WNCD201706020.jpg","emergency_person":null,"student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>付文攀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"510722199307275955","student_no":"WNCD201706020","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机械设计制造及其自动化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重庆市城市职业学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"2014-07-01","tel":"15196295246","emergency_tel":null,"age":"23","email":null,"status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转就业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"},{"QQ":"764114271","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大专</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":832,"employee_name":"","class_no":"WNCDC027","picture":"WNCQ201707007.jpg","emergency_person":"","student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黎涛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"500242199210164139","student_no":"WNCQ201707007","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>市场营销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重庆工商职业学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"","tel":"15213756843","emergency_tel":"","age":"25","email":"","status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已缴清</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"}]}</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"totalRow":0,"pageNumber":1,"firstPage":true,"lastPage":true,"totalPage":0,"pageSize":10,"list":[]}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过班级查询学生的基本信息（班级存在，学员存在）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过班级查询学生的基本信息（班级存在，学员不存在）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过班级查询学生的基本信息(默认值)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STUSDENT-BASIC-005</t>
+  </si>
+  <si>
+    <t>STUSDENT-BASIC-006</t>
+  </si>
+  <si>
+    <t>STUSDENT-BASIC-007</t>
+  </si>
+  <si>
+    <t>STUSDENT-BASIC-008</t>
+  </si>
+  <si>
+    <t>STUSDENT-BASIC-009</t>
+  </si>
+  <si>
+    <t>STUSDENT-BASIC-010</t>
+  </si>
+  <si>
+    <t>STUSDENT-BASIC-011</t>
+  </si>
+  <si>
+    <t>通过方向查询学生的基本信息（班级不存在）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pageSize=10
+pageIndex=1
+stuName=
+stuNo=
+stuClass=WNCDC928
+orientation=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">全部
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stuStatus=</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"totalRow":22,"pageNumber":1,"firstPage":true,"lastPage":false,"totalPage":3,"pageSize":10,"list":[{"QQ":"2323596738","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大专</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":721,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郑雪娇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":"WNCDC029","picture":"","emergency_person":"","student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>唐一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"511011199502033197","student_no":"WNCD201710001","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汽修</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都交通与机械技师学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"2016-06-01","tel":"18113005298","emergency_tel":"","age":"22","email":"","status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已退学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"},{"QQ":"498425230","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":1252,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>曾超</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":"WNCDC034","picture":"","emergency_person":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>敬大鹏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>敬大彦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"511321199106287135","student_no":"WNCD201805018","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测绘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>山东科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ","graduation_time":"2015-05-08","tel":"0","emergency_tel":"15181715046","age":null,"email":null,"status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在校学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"},{"QQ":"732225683","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":1253,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汤雪娜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":"WNCDC034","picture":"","emergency_person":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高德兴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高尚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"321084199503276513","student_no":"WNCD201805020","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息工程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>南京航空航天大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"2017-07-01","tel":"18360857392","emergency_tel":"15951043598","age":"24","email":null,"status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未开班</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"},{"QQ":"363226295","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":1254,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郑雪娇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":"WNCDC034","picture":"","emergency_person":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老公</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈怡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"510622199010205723","student_no":"WNCD201805012","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动植物检疫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四川农业大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"2013-07-01","tel":"18016156570","emergency_tel":"18508385053","age":null,"email":null,"status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在校学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"},{"QQ":"625160751","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大专</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":1255,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郑雪娇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":"WNCDC034","picture":"","emergency_person":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>母亲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>朱俊陇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"510123199611231010","student_no":"WNCD201805021","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汽车运用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四川交通运输学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"2016-07-01","tel":"15756232543","emergency_tel":"15928841790","age":null,"email":null,"status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在校学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"},{"QQ":"995725622","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":1256,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蒋婷婷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":"WNCDC034","picture":"","emergency_person":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李娟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王森</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"511325199709174119","student_no":"WNCD201805022","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>动车制造技术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重庆工业职业技术学校</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"2017-07-01","tel":"18375865818","emergency_tel":"13545670135","age":"21","email":null,"status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在校学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"},{"QQ":"0","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":1258,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蒋婷婷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":"WNCDC034","picture":"","emergency_person":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李云辉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万宝霖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"230702198609020918","student_no":"WNCD201805023","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>计算机网络</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>东北农业大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"2007-01-01","tel":"13846606158","emergency_tel":"13846616013","age":"32","email":null,"status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在校学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"},{"QQ":"995256844","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":1259,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蒋婷婷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":"WNCDC034","picture":"","emergency_person":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>罗跃平</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>罗浪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"510525199510128430","student_no":"WNCD201805024","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件技术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四川托普信息技术职业学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"2018-01-01","tel":"17721535932","emergency_tel":"15905175984","age":"22","email":null,"status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在校学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"},{"QQ":"1341948335","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":1261,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>曾超</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":"WNCDC034","picture":"","emergency_person":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>饶同学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈洋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"510122199511297016","student_no":"WNCD201805028","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>工业设计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都理工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"2018-05-11","tel":"15982474873","emergency_tel":"18111224712","age":"22","email":null,"status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在校学习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"},{"QQ":"1198199178","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":1262,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汤雪娜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":"WNCDC034","picture":"","emergency_person":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>庞爱明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>庞金城</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"511324199601027874","student_no":"WNCD201805029","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建筑工程技术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广安职业技术学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"2016-07-01","tel":"18111223360","emergency_tel":"13565306373","age":"22","email":null,"status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已退学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"}]}</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过方向查询学生的基本信息</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过最新状态查询学生的基本信息</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pageSize=10
+pageIndex=1
+stuName=
+stuNo=
+stuClass=全部
+orientation=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">全部
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stuStatus=未开班</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"totalRow":5,"pageNumber":1,"firstPage":true,"lastPage":true,"totalPage":1,"pageSize":10,"list":[{"QQ":"732225683","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公共</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":1253,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汤雪娜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":"WNCDC034","picture":"","emergency_person":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高德兴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高尚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"321084199503276513","student_no":"WNCD201805020","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息工程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>南京航空航天大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"2017-07-01","tel":"18360857392","emergency_tel":"15951043598","age":"24","email":null,"status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未开班</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"},{"QQ":null,"orientation":null,"education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":1382,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汤雪娜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":null,"picture":"","emergency_person":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄晓洪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄俊杰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"513123199411090017","student_no":"WNCD201806034","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金融学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电子科技大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"2018-07-01","tel":"18502833324","emergency_tel":"13568767728","age":"23","email":"0","status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未开班</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"},{"QQ":"","orientation":null,"education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":1383,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张婷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":null,"picture":"","emergency_person":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>范仕文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>范芯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"513822199012264819","student_no":"WNCD201806036","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电子信息工程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中国民航大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"2013-06-26","tel":"15708055755","emergency_tel":"13980371810","age":"28","email":"0","status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未开班</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"},{"QQ":null,"orientation":null,"education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":1384,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汤雪娜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":null,"picture":"","emergency_person":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赵莹莹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赵千</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"513022199207221516","student_no":"WNCD201806037","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件工程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四川大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"2015-07-01","tel":"13520757169","emergency_tel":"18682831552","age":"25","email":null,"status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未开班</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"},{"QQ":"0","orientation":null,"education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":1388,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>郑雪娇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":null,"picture":"","emergency_person":"","student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>马阳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"","student_no":"WNCD201807001","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件工程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安石油大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"","tel":"18681873872","emergency_tel":"","age":null,"email":"m18165293411@163.com","status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未开班</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"}]}</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过班级和方向查询学生的基本信息</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"totalRow":1,"pageNumber":1,"firstPage":true,"lastPage":true,"totalPage":1,"pageSize":10,"list":[{"QQ":null,"orientation":"开发","education":"大专","sex":"男","student_id":584,"employee_name":"张婷","class_no":"WNCDC027","picture":"CD/201706/WNCD201706020.jpg","emergency_person":null,"student_name":"付文攀","IDnumber":"510722199307275955","student_no":"WNCD201706020","major":"机械设计制造及其自动化","school":"重庆市城市职业学院","graduation_time":"2014-07-01","tel":"15196295246","emergency_tel":null,"age":"23","email":null,"status":"转就业"}]}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过班级和最新状态查询学生的基本信息</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pageSize=10
+pageIndex=1
+stuName=
+stuNo=
+stuClass=WNCDC027
+orientation=全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stuStatus=转就业</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过方向和最新状态查询学生的基本信息</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pageSize=10
+pageIndex=1
+stuName=
+stuNo=
+stuClass=全部
+orientation=开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stuStatus=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转就业</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pageSize=10
+pageIndex=1
+stuName=
+stuNo=
+stuClass=WNCDC037
+orientation=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">全部
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stuStatus=</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pageSize=10
+pageIndex=1
+stuName=
+stuNo=
+stuClass=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">全部
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>orientation=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">公共
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stuStatus=</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pageSize=10
+pageIndex=1
+stuName=
+stuNo=
+stuClass=WNCDC035
+orientation=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">全部
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stuStatus=</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"totalRow":5,"pageNumber":1,"firstPage":true,"lastPage":true,"totalPage":1,"pageSize":10,"list":[{"QQ":null,"orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大专</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":584,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张婷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":"WNCDC027","picture":"CD/201706/WNCD201706020.jpg","emergency_person":null,"student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>付文攀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"510722199307275955","student_no":"WNCD201706020","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机械设计制造及其自动化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重庆市城市职业学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"2014-07-01","tel":"15196295246","emergency_tel":null,"age":"23","email":null,"status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转就业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"},{"QQ":"365356498","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":722,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张婷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":"WNCDC029","picture":"WNCD201710002.jpg","emergency_person":"","student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>谢竺颖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"510781199108110023","student_no":"WNCD201710002","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>信息管理与信息系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都信息工程学院银杏酒店管理学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"2016-06-01","tel":"13281146855","emergency_tel":"","age":"26","email":"","status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转就业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"},{"QQ":"380385527","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大专</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":851,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雷明菊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":"WNCDC029","picture":"WNCQ201710004.JPG","emergency_person":"","student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>甘立文</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"513029199606161359","student_no":"WNCQ201710004","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>光伏发电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赣西科技职业学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"","tel":"15779590070","emergency_tel":"","age":"21","email":"","status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转就业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"},{"QQ":"929227862","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":854,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雷明菊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":"WNCDC029","picture":"WNCQ201710007.JPG","emergency_person":"","student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周杰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"500102199312184775","student_no":"WNCQ201710007","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件工程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西南大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"","tel":"17623662673","emergency_tel":"","age":"24","email":"","status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转就业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"},{"QQ":"602976274","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大专</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":858,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雷明菊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":"WNCDC029","picture":"WNCQ201711011.JPG","emergency_person":"","student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王天琦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"659001199604212810","student_no":"WNCQ201711011","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移动通信</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重庆工程职业技术学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"","tel":"18375849728","emergency_tel":"","age":"21","email":"","status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转就业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"}]}</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过班级、方向和最新状态查询学生的基本信息</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pageSize=10
+pageIndex=1
+stuName=
+stuNo=
+stuClass=WNCDC031
+orientation=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">全部
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stuStatus=转就业</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"totalRow":1,"pageNumber":1,"firstPage":true,"lastPage":true,"totalPage":1,"pageSize":10,"list":[{"QQ":null,"orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大专</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":584,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张婷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":"WNCDC027","picture":"CD/201706/WNCD201706020.jpg","emergency_person":null,"student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>付文攀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"510722199307275955","student_no":"WNCD201706020","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机械设计制造及其自动化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重庆市城市职业学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"2014-07-01","tel":"15196295246","emergency_tel":null,"age":"23","email":null,"status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转就业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"}]}</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -182,7 +5995,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,8 +6070,28 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,8 +6110,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -301,6 +6140,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -308,7 +6173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -373,6 +6238,76 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -714,8 +6649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -881,4 +6816,375 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67BB38D-4AFA-4A4E-A672-EE8AB4FE9A9A}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="35.83203125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="55.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.6640625" style="40" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15">
+      <c r="A2" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="39"/>
+      <c r="I2" s="25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="409.6">
+      <c r="A3" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="370">
+      <c r="A4" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="99">
+      <c r="A5" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="99">
+      <c r="A6" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="409.6">
+      <c r="A7" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="409.6">
+      <c r="A8" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="210">
+      <c r="A9" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="210">
+      <c r="A10" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="409.6">
+      <c r="A11" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="210">
+      <c r="A12" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="26"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="37"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="33"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="42"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/woniuBoss/data/woniuBoss_test_cases.xlsx
+++ b/woniuBoss/data/woniuBoss_test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zilong/Documents/蜗牛Boss测试/Git/woniuBoss/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4A9C66-2831-5348-BB2C-12D7EA3A3543}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE54AFF7-C239-F74E-AE4C-377112B58A3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="30720" windowHeight="17920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6823,7 +6823,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>

--- a/woniuBoss/data/woniuBoss_test_cases.xlsx
+++ b/woniuBoss/data/woniuBoss_test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zilong/Documents/蜗牛Boss测试/Git/woniuBoss/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE54AFF7-C239-F74E-AE4C-377112B58A3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E7059A-A500-DB46-ABF4-CF7E4C39DD50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="30720" windowHeight="17920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
   <si>
     <t>用例编号</t>
   </si>
@@ -5990,12 +5990,28 @@
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>解密学生数据</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STUSDENT-DECODE-001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.114.220:8080/WoniuBoss2.5/second?vp=woniu123</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6090,6 +6106,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -6167,13 +6191,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6308,10 +6333,14 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6823,7 +6852,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -7160,19 +7189,35 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="26"/>
-      <c r="B13" s="46"/>
+    <row r="13" spans="1:9" ht="15">
+      <c r="A13" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>76</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="20"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="37"/>
+      <c r="E13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="37">
+        <v>200</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="33"/>
+      <c r="A14" s="33" t="s">
+        <v>77</v>
+      </c>
       <c r="B14" s="44"/>
       <c r="C14" s="34"/>
       <c r="D14" s="35"/>
@@ -7184,6 +7229,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F13" r:id="rId1" xr:uid="{ABEA09D7-5EF9-E84C-934D-66509C87FDFC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/woniuBoss/data/woniuBoss_test_cases.xlsx
+++ b/woniuBoss/data/woniuBoss_test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zilong/Documents/蜗牛Boss测试/Git/woniuBoss/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E7059A-A500-DB46-ABF4-CF7E4C39DD50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A329A6A1-7E3D-9047-923D-114C6086B75A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3760" yWindow="960" windowWidth="30720" windowHeight="17220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="82">
   <si>
     <t>用例编号</t>
   </si>
@@ -268,9 +268,6 @@
 stuStatus=</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuInfo</t>
   </si>
   <si>
     <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuInfo</t>
@@ -4925,37 +4922,6 @@
 pageIndex=1
 stuName=
 stuNo=
-stuClass=WNCDC037
-orientation=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">全部
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>stuStatus=</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>pageSize=10
-pageIndex=1
-stuName=
-stuNo=
 stuClass=</t>
     </r>
     <r>
@@ -5803,11 +5769,196 @@
   </si>
   <si>
     <r>
+      <t>{"totalRow":1,"pageNumber":1,"firstPage":true,"lastPage":true,"totalPage":1,"pageSize":10,"list":[{"QQ":null,"orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","education":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大专</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","sex":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","student_id":584,"employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张婷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","class_no":"WNCDC027","picture":"CD/201706/WNCD201706020.jpg","emergency_person":null,"student_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>付文攀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","IDnumber":"510722199307275955","student_no":"WNCD201706020","major":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机械设计制造及其自动化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","school":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重庆市城市职业学院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>","graduation_time":"2014-07-01","tel":"15196295246","emergency_tel":null,"age":"23","email":null,"status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转就业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>"}]}</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>解密学生数据</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STUSDENT-DECODE-001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.114.220:8080/WoniuBoss2.5/second?vp=woniu123</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>vp=woniu123</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuByInfo</t>
+  </si>
+  <si>
+    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuByInfo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>pageSize=10
 pageIndex=1
 stuName=
 stuNo=
-stuClass=WNCDC031
+stuClass=WNCDC027
 orientation=</t>
     </r>
     <r>
@@ -5828,182 +5979,49 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>stuStatus=转就业</t>
+      <t>stuStatus=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转就业</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>{"totalRow":1,"pageNumber":1,"firstPage":true,"lastPage":true,"totalPage":1,"pageSize":10,"list":[{"QQ":null,"orientation":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>","education":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大专</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>","sex":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>男</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>","student_id":584,"employee_name":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张婷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>","class_no":"WNCDC027","picture":"CD/201706/WNCD201706020.jpg","emergency_person":null,"student_name":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>付文攀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>","IDnumber":"510722199307275955","student_no":"WNCD201706020","major":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>机械设计制造及其自动化</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>","school":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>重庆市城市职业学院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>","graduation_time":"2014-07-01","tel":"15196295246","emergency_tel":null,"age":"23","email":null,"status":"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>转就业</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>"}]}</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>解密学生数据</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STUSDENT-DECODE-001</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.114.220:8080/WoniuBoss2.5/second?vp=woniu123</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
+      <t>pageSize=10
+pageIndex=1
+stuName=
+stuNo=
+stuClass=WNCDC027
+orientation=开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>stuStatus=</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6198,7 +6216,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6334,6 +6352,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6679,7 +6700,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:H6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -6851,8 +6872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67BB38D-4AFA-4A4E-A672-EE8AB4FE9A9A}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -6924,7 +6945,7 @@
         <v>35</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="20" t="s">
@@ -6934,13 +6955,13 @@
         <v>15</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" s="37">
         <v>200</v>
@@ -6951,23 +6972,23 @@
         <v>37</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="42" t="s">
-        <v>41</v>
+      <c r="F4" s="49" t="s">
+        <v>79</v>
       </c>
       <c r="G4" s="38" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" s="42">
         <v>200</v>
@@ -6978,23 +6999,23 @@
         <v>38</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="G5" s="37" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" s="37">
         <v>200</v>
@@ -7002,26 +7023,26 @@
     </row>
     <row r="6" spans="1:9" ht="99">
       <c r="A6" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="42" t="s">
-        <v>40</v>
+      <c r="F6" s="49" t="s">
+        <v>78</v>
       </c>
       <c r="G6" s="38" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="42">
         <v>200</v>
@@ -7029,26 +7050,26 @@
     </row>
     <row r="7" spans="1:9" ht="409.6">
       <c r="A7" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="G7" s="37" t="s">
         <v>22</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I7" s="37">
         <v>200</v>
@@ -7056,26 +7077,26 @@
     </row>
     <row r="8" spans="1:9" ht="409.6">
       <c r="A8" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="42" t="s">
-        <v>40</v>
+      <c r="F8" s="49" t="s">
+        <v>78</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I8" s="42">
         <v>200</v>
@@ -7083,26 +7104,26 @@
     </row>
     <row r="9" spans="1:9" ht="210">
       <c r="A9" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="20" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="G9" s="37" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I9" s="37">
         <v>200</v>
@@ -7110,26 +7131,26 @@
     </row>
     <row r="10" spans="1:9" ht="210">
       <c r="A10" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="42" t="s">
-        <v>40</v>
+      <c r="F10" s="49" t="s">
+        <v>78</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I10" s="42">
         <v>200</v>
@@ -7137,26 +7158,26 @@
     </row>
     <row r="11" spans="1:9" ht="409.6">
       <c r="A11" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="G11" s="37" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I11" s="37">
         <v>200</v>
@@ -7164,26 +7185,26 @@
     </row>
     <row r="12" spans="1:9" ht="210">
       <c r="A12" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="35" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="42" t="s">
-        <v>40</v>
+      <c r="F12" s="49" t="s">
+        <v>78</v>
       </c>
       <c r="G12" s="38" t="s">
         <v>22</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I12" s="42">
         <v>200</v>
@@ -7191,24 +7212,26 @@
     </row>
     <row r="13" spans="1:9" ht="15">
       <c r="A13" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="20"/>
       <c r="E13" s="17" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="48" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G13" s="37" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I13" s="37">
         <v>200</v>
@@ -7216,7 +7239,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="33" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B14" s="44"/>
       <c r="C14" s="34"/>
@@ -7231,6 +7254,15 @@
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F13" r:id="rId1" xr:uid="{ABEA09D7-5EF9-E84C-934D-66509C87FDFC}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{708E33A6-B009-0D44-A4D3-6D4ABA388A2E}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{6E456B71-64F7-9149-B0E1-A4108ADF649D}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{438F72C9-EE69-6144-BC3E-C908C4EADCCB}"/>
+    <hyperlink ref="F9" r:id="rId5" xr:uid="{1EB47B34-1656-A448-B8BE-AAC2DCEB883C}"/>
+    <hyperlink ref="F11" r:id="rId6" xr:uid="{136E3795-FE96-2244-9634-5D763EE64422}"/>
+    <hyperlink ref="F6" r:id="rId7" xr:uid="{9BDB9F12-D04D-DE46-BAB3-73C284450429}"/>
+    <hyperlink ref="F8" r:id="rId8" xr:uid="{F788DFF3-EE8E-E34D-8F83-9137D9F8E484}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{509CCFF3-AF3F-794A-8E02-FD7136BDF9A8}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{301BC090-53DC-E44E-BB58-1B84487C39F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/woniuBoss/data/woniuBoss_test_cases.xlsx
+++ b/woniuBoss/data/woniuBoss_test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zilong/Documents/蜗牛Boss测试/Git/woniuBoss/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A329A6A1-7E3D-9047-923D-114C6086B75A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82238512-9CA9-5948-A686-67B7D3882657}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="960" windowWidth="30720" windowHeight="17220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7440" yWindow="460" windowWidth="30720" windowHeight="17220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="138">
   <si>
     <t>用例编号</t>
   </si>
@@ -5994,42 +5994,629 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuOfAtten</t>
+  </si>
+  <si>
+    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuOfAtten</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>vp=woniu123123</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.114.220:8080/WoniuBoss2.5/second</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级密码输入错误</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日晨考</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize=30
+pageIndex=1
+stuName=</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"totalRow":0,"pageNumber":1,"firstPage":true,"lastPage":true,"totalPage":0,"pageSize":30,"list":[]}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERYSTUOFATTEN-001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERYSTUOFATTEN-002</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERYSTUOFATTEN-003</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize=30
+pageIndex=1
+stuName=TTT</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STUSDENT-DECODE-002</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERYSTUMORNEXAM-001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuOfMornExam</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize=10
+pageIndex=1
+stuName=</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日考勤</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日考勤查询学生姓名</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日考勤查询学生姓名不存在</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERYSTUMORNEXAM-002</t>
+  </si>
+  <si>
+    <t>QUERYSTUMORNEXAM-003</t>
+  </si>
+  <si>
+    <t>{"totalRow":0,"pageNumber":1,"firstPage":true,"lastPage":true,"totalPage":0,"pageSize":11,"list":[]}</t>
+  </si>
+  <si>
+    <t>{"totalRow":0,"pageNumber":1,"firstPage":true,"lastPage":true,"totalPage":0,"pageSize":12,"list":[]}</t>
+  </si>
+  <si>
+    <r>
+      <t>pageSize=30
+pageIndex=1
+stuName=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冷佩</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize=10
+pageIndex=3
+stuName=TTT</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryLeave</t>
+  </si>
+  <si>
+    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryLeave</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY-LEAVE-001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY-LEAVE-002</t>
+  </si>
+  <si>
+    <t>QUERY-LEAVE-003</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>今日晨考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询学生姓名</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>今日晨考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询学生姓名不存在</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>pageSize=10
 pageIndex=1
-stuName=
-stuNo=
-stuClass=WNCDC027
-orientation=开发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+leaveStatus=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">全部
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>stuStatus=</t>
-    </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>stuName=</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pageSize=10
+pageIndex=1
+leaveStatus=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">请假中
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>stuName=</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pageSize=10
+pageIndex=1
+leaveStatus=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">已经销假
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>stuName=</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学员请假</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请假状态全部</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>学员请假请假状态请假中</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>学员请假请假状态已销假</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY-LEAVE-004</t>
+  </si>
+  <si>
+    <t>学员请假请假状态全部、姓名</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pageSize=10
+pageIndex=2
+stuName=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冷佩</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pageSize=10
+pageIndex=1
+leaveStatus=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">全部
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>stuName=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冷佩</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY-LEAVE-005</t>
+  </si>
+  <si>
+    <t>学员请假请通过假状态、姓名筛选</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pageSize=10
+pageIndex=1
+leaveStatus=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">请假中
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>stuName=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冷佩</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>sl.student_id=1275
+sl.start_time=2020-04-07
+sl.end_time=2020-04-07
+sl.leave_type=事假
+sl.days=1
+stuName=冷佩
+sl.reason=
+sl.comment=</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/saveLeave</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增请假</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-事假</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增请假</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-休学</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新增请假</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>病假</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sl.student_id=1275
+sl.start_time=2020-04-07
+sl.end_time=2020-04-07
+sl.leave_type=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">病假
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>sl.days=1
+stuName=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">冷佩
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>sl.reason=
+sl.comment=</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sl.student_id=1275
+sl.start_time=2020-04-07
+sl.end_time=2020-04-07
+sl.leave_type=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">休学
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>sl.days=1
+stuName=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">冷佩
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>sl.reason=
+sl.comment=</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAVE-LEAVE-001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAVE-LEAVE-002</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAVE-LEAVE-003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6132,6 +6719,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -6216,7 +6810,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6351,11 +6945,78 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6870,10 +7531,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67BB38D-4AFA-4A4E-A672-EE8AB4FE9A9A}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -6882,13 +7543,13 @@
     <col min="2" max="2" width="35.83203125" style="40" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="55.83203125" customWidth="1"/>
+    <col min="6" max="6" width="64" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41.6640625" style="40" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:10" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6917,7 +7578,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:10" ht="15">
       <c r="A2" s="28" t="s">
         <v>36</v>
       </c>
@@ -6940,7 +7601,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="409.6">
+    <row r="3" spans="1:10" ht="409.6">
       <c r="A3" s="26" t="s">
         <v>35</v>
       </c>
@@ -6967,7 +7628,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="370">
+    <row r="4" spans="1:10" ht="370">
       <c r="A4" s="33" t="s">
         <v>37</v>
       </c>
@@ -6994,7 +7655,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="99">
+    <row r="5" spans="1:10" ht="99">
       <c r="A5" s="26" t="s">
         <v>38</v>
       </c>
@@ -7021,7 +7682,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="99">
+    <row r="6" spans="1:10" ht="99">
       <c r="A6" s="33" t="s">
         <v>48</v>
       </c>
@@ -7048,7 +7709,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="409.6">
+    <row r="7" spans="1:10" ht="409.6">
       <c r="A7" s="26" t="s">
         <v>49</v>
       </c>
@@ -7075,7 +7736,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="409.6">
+    <row r="8" spans="1:10" ht="409.6">
       <c r="A8" s="33" t="s">
         <v>50</v>
       </c>
@@ -7102,7 +7763,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="210">
+    <row r="9" spans="1:10" ht="210">
       <c r="A9" s="26" t="s">
         <v>51</v>
       </c>
@@ -7129,7 +7790,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="210">
+    <row r="10" spans="1:10" ht="210">
       <c r="A10" s="33" t="s">
         <v>52</v>
       </c>
@@ -7156,7 +7817,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="409.6">
+    <row r="11" spans="1:10" ht="409.6">
       <c r="A11" s="26" t="s">
         <v>53</v>
       </c>
@@ -7183,7 +7844,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="210">
+    <row r="12" spans="1:10" ht="210">
       <c r="A12" s="33" t="s">
         <v>54</v>
       </c>
@@ -7210,59 +7871,462 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" s="33" t="s">
+    <row r="13" spans="1:10" ht="15">
+      <c r="A13" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="20" t="s">
+      <c r="C13" s="53"/>
+      <c r="D13" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="57">
+        <v>200</v>
+      </c>
+      <c r="J13" s="48"/>
+    </row>
+    <row r="14" spans="1:10" ht="15">
+      <c r="A14" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F14" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G14" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H14" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I14" s="42">
         <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="42"/>
+    <row r="15" spans="1:10" ht="45">
+      <c r="A15" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="45">
+      <c r="A16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="45">
+      <c r="A17" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="45">
+      <c r="A18" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="45">
+      <c r="A19" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="45">
+      <c r="A20" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="60">
+      <c r="A21" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="60">
+      <c r="A22" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="75">
+      <c r="A23" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="60">
+      <c r="A24" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="60">
+      <c r="A25" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" s="72" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="150">
+      <c r="A26" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="150">
+      <c r="A27" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="22"/>
+      <c r="D27" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="G27" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="150">
+      <c r="A28" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="42">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1" xr:uid="{ABEA09D7-5EF9-E84C-934D-66509C87FDFC}"/>
-    <hyperlink ref="F5" r:id="rId2" xr:uid="{708E33A6-B009-0D44-A4D3-6D4ABA388A2E}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{6E456B71-64F7-9149-B0E1-A4108ADF649D}"/>
-    <hyperlink ref="F7" r:id="rId4" xr:uid="{438F72C9-EE69-6144-BC3E-C908C4EADCCB}"/>
-    <hyperlink ref="F9" r:id="rId5" xr:uid="{1EB47B34-1656-A448-B8BE-AAC2DCEB883C}"/>
-    <hyperlink ref="F11" r:id="rId6" xr:uid="{136E3795-FE96-2244-9634-5D763EE64422}"/>
-    <hyperlink ref="F6" r:id="rId7" xr:uid="{9BDB9F12-D04D-DE46-BAB3-73C284450429}"/>
-    <hyperlink ref="F8" r:id="rId8" xr:uid="{F788DFF3-EE8E-E34D-8F83-9137D9F8E484}"/>
-    <hyperlink ref="F10" r:id="rId9" xr:uid="{509CCFF3-AF3F-794A-8E02-FD7136BDF9A8}"/>
-    <hyperlink ref="F12" r:id="rId10" xr:uid="{301BC090-53DC-E44E-BB58-1B84487C39F4}"/>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{708E33A6-B009-0D44-A4D3-6D4ABA388A2E}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{6E456B71-64F7-9149-B0E1-A4108ADF649D}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{438F72C9-EE69-6144-BC3E-C908C4EADCCB}"/>
+    <hyperlink ref="F9" r:id="rId4" xr:uid="{1EB47B34-1656-A448-B8BE-AAC2DCEB883C}"/>
+    <hyperlink ref="F11" r:id="rId5" xr:uid="{136E3795-FE96-2244-9634-5D763EE64422}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{9BDB9F12-D04D-DE46-BAB3-73C284450429}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{F788DFF3-EE8E-E34D-8F83-9137D9F8E484}"/>
+    <hyperlink ref="F10" r:id="rId8" xr:uid="{509CCFF3-AF3F-794A-8E02-FD7136BDF9A8}"/>
+    <hyperlink ref="F12" r:id="rId9" xr:uid="{301BC090-53DC-E44E-BB58-1B84487C39F4}"/>
+    <hyperlink ref="F15" r:id="rId10" xr:uid="{2017A1D3-C678-5148-B5AC-C3910D15A84D}"/>
+    <hyperlink ref="F14" r:id="rId11" xr:uid="{4FC31C5A-A77A-8243-8DB2-D1ED5ACD33D0}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{019A12BE-2AC5-DE49-81C1-233F2AE60A91}"/>
+    <hyperlink ref="H13" r:id="rId13" display="http://192.168.114.220:8080/WoniuBoss2.5/second?vp=ee" xr:uid="{59983EC8-24CA-134E-9FC2-699162ED87F9}"/>
+    <hyperlink ref="F18" r:id="rId14" xr:uid="{F98BCEBB-6214-1946-A220-FF8CBECDA5BE}"/>
+    <hyperlink ref="F19" r:id="rId15" xr:uid="{BF2EB22B-C368-EF4E-9BA5-3C422BF4A25B}"/>
+    <hyperlink ref="F20" r:id="rId16" xr:uid="{670B3D48-A243-8E47-9782-122A79827D8D}"/>
+    <hyperlink ref="F21" r:id="rId17" xr:uid="{B19D900A-AB2B-354F-BC88-6C2568FA9C61}"/>
+    <hyperlink ref="F22" r:id="rId18" xr:uid="{B6F86BCC-4164-A347-8B9C-DB436A920CA5}"/>
+    <hyperlink ref="F23" r:id="rId19" xr:uid="{5F547A12-8ACA-1647-8DC8-D3CE15ABF968}"/>
+    <hyperlink ref="F24" r:id="rId20" xr:uid="{338BCF75-B249-FD42-9E03-5DB104BA6359}"/>
+    <hyperlink ref="F25" r:id="rId21" xr:uid="{F4BB4557-24FA-E64B-99F0-631A5CD83FD9}"/>
+    <hyperlink ref="F26" r:id="rId22" xr:uid="{0C5B6C46-703D-444F-8F51-F4E66472A823}"/>
+    <hyperlink ref="F27" r:id="rId23" xr:uid="{5F9CE976-97D0-634E-933C-DA4B46315A87}"/>
+    <hyperlink ref="F28" r:id="rId24" xr:uid="{CE615689-8483-DE41-8B6C-0108C5E8CF02}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/woniuBoss/data/woniuBoss_test_cases.xlsx
+++ b/woniuBoss/data/woniuBoss_test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zilong/Documents/蜗牛Boss测试/Git/woniuBoss/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82238512-9CA9-5948-A686-67B7D3882657}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E185E105-691C-9F4D-87A8-18002F6DF284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="460" windowWidth="30720" windowHeight="17220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="30720" windowHeight="17220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="170">
   <si>
     <t>用例编号</t>
   </si>
@@ -6609,7 +6609,336 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>ATTEND-RESULT-001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize=10
+pageIndex=1
+stuClass=
+orientation=
+stuName=
+s_time=
+e_time=</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>晨考记录</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晨考记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-班级</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晨考记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>- 方向</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晨考记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> -姓名</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晨考记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryAtteResult1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize=10
+pageIndex=1
+stuClass=WNCDC035
+orientation=
+stuName=
+s_time=
+e_time=</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize=10
+pageIndex=1
+stuClass=
+orientation=公共
+stuName=
+s_time=
+e_time=</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize=10
+pageIndex=1
+stuClass=
+orientation=
+stuName=冷佩
+s_time=
+e_time=</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize=10
+pageIndex=1
+stuClass=
+orientation=
+stuName=
+s_time=2020-04-07
+e_time=2020-04-07</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>SAVE-LEAVE-003</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTEND-RESULT-002</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTEND-RESULT-004</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE-TEST-001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段评测</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize=10
+pageIndex=1
+stuClass=
+orientation=
+stuName=</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuOfTeacher</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryAtteResult</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize=10
+pageIndex=1
+stuClass=WNCDC035
+orientation=
+stuName=</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阶段评测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>班级</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阶段评测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-方向</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>阶段评测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-姓名</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize=10
+pageIndex=1
+stuClass=
+orientation=开发
+stuName=</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">pageSize=10
+pageIndex=1
+stuClass=
+orientation=
+stuName=冷佩
+</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE-TEST-005</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTEND-RESULT-003</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTEND-RESULT-005</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE-TEST-002</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryPhaseExamStuByInfo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE-TEST-003</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE-TEST-004</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6753,7 +7082,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -6802,6 +7131,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6810,7 +7150,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6949,6 +7289,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7015,8 +7358,11 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7531,10 +7877,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67BB38D-4AFA-4A4E-A672-EE8AB4FE9A9A}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:A28"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -7543,7 +7889,7 @@
     <col min="2" max="2" width="35.83203125" style="40" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="64" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41.6640625" style="40" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
@@ -7872,29 +8218,29 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="50" t="s">
+      <c r="C13" s="54"/>
+      <c r="D13" s="51" t="s">
         <v>84</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="54" t="s">
+      <c r="F13" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="56" t="s">
+      <c r="H13" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="57">
+      <c r="I13" s="58">
         <v>200</v>
       </c>
       <c r="J13" s="48"/>
@@ -7903,7 +8249,7 @@
       <c r="A14" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="59" t="s">
         <v>73</v>
       </c>
       <c r="C14" s="6"/>
@@ -7913,13 +8259,13 @@
       <c r="E14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="60" t="s">
         <v>75</v>
       </c>
       <c r="G14" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="60" t="s">
+      <c r="H14" s="61" t="s">
         <v>76</v>
       </c>
       <c r="I14" s="42">
@@ -7930,7 +8276,7 @@
       <c r="A15" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="62" t="s">
         <v>99</v>
       </c>
       <c r="C15" s="23"/>
@@ -7940,16 +8286,16 @@
       <c r="E15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="62" t="s">
+      <c r="F15" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="58" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="I15" s="57">
+      <c r="I15" s="58">
         <v>200</v>
       </c>
     </row>
@@ -7957,11 +8303,11 @@
       <c r="A16" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="64" t="s">
         <v>100</v>
       </c>
       <c r="C16" s="21"/>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="65" t="s">
         <v>106</v>
       </c>
       <c r="E16" s="10" t="s">
@@ -7973,7 +8319,7 @@
       <c r="G16" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="64" t="s">
+      <c r="H16" s="65" t="s">
         <v>90</v>
       </c>
       <c r="I16" s="42">
@@ -7984,7 +8330,7 @@
       <c r="A17" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="62" t="s">
         <v>101</v>
       </c>
       <c r="C17" s="23"/>
@@ -7997,7 +8343,7 @@
       <c r="F17" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="57" t="s">
+      <c r="G17" s="58" t="s">
         <v>22</v>
       </c>
       <c r="H17" s="27" t="s">
@@ -8011,23 +8357,23 @@
       <c r="A18" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="65" t="s">
         <v>88</v>
       </c>
       <c r="C18" s="21"/>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="65" t="s">
         <v>98</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="65" t="s">
+      <c r="F18" s="66" t="s">
         <v>97</v>
       </c>
       <c r="G18" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="64" t="s">
+      <c r="H18" s="65" t="s">
         <v>44</v>
       </c>
       <c r="I18" s="42">
@@ -8038,26 +8384,26 @@
       <c r="A19" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="B19" s="69" t="s">
         <v>113</v>
       </c>
       <c r="C19" s="22"/>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="67" t="s">
         <v>123</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="67" t="s">
+      <c r="F19" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="57" t="s">
+      <c r="G19" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="66" t="s">
+      <c r="H19" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="I19" s="57">
+      <c r="I19" s="58">
         <v>200</v>
       </c>
     </row>
@@ -8065,23 +8411,23 @@
       <c r="A20" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="70" t="s">
         <v>114</v>
       </c>
       <c r="C20" s="21"/>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="65" t="s">
         <v>107</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="65" t="s">
+      <c r="F20" s="66" t="s">
         <v>97</v>
       </c>
       <c r="G20" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="64" t="s">
+      <c r="H20" s="65" t="s">
         <v>105</v>
       </c>
       <c r="I20" s="42">
@@ -8092,7 +8438,7 @@
       <c r="A21" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="71" t="s">
         <v>118</v>
       </c>
       <c r="C21" s="23"/>
@@ -8102,16 +8448,16 @@
       <c r="E21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="F21" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="G21" s="57" t="s">
+      <c r="G21" s="58" t="s">
         <v>22</v>
       </c>
       <c r="H21" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="57">
+      <c r="I21" s="58">
         <v>200</v>
       </c>
     </row>
@@ -8119,23 +8465,23 @@
       <c r="A22" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="64" t="s">
         <v>119</v>
       </c>
       <c r="C22" s="21"/>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="65" t="s">
         <v>116</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="65" t="s">
+      <c r="F22" s="66" t="s">
         <v>109</v>
       </c>
       <c r="G22" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="64" t="s">
+      <c r="H22" s="65" t="s">
         <v>44</v>
       </c>
       <c r="I22" s="42">
@@ -8146,7 +8492,7 @@
       <c r="A23" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="62" t="s">
         <v>120</v>
       </c>
       <c r="C23" s="23"/>
@@ -8156,16 +8502,16 @@
       <c r="E23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="71" t="s">
+      <c r="F23" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="G23" s="57" t="s">
+      <c r="G23" s="58" t="s">
         <v>22</v>
       </c>
       <c r="H23" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="57">
+      <c r="I23" s="58">
         <v>200</v>
       </c>
     </row>
@@ -8173,23 +8519,23 @@
       <c r="A24" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="65" t="s">
         <v>122</v>
       </c>
       <c r="C24" s="21"/>
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="65" t="s">
         <v>124</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="65" t="s">
+      <c r="F24" s="66" t="s">
         <v>109</v>
       </c>
       <c r="G24" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="64" t="s">
+      <c r="H24" s="65" t="s">
         <v>44</v>
       </c>
       <c r="I24" s="42">
@@ -8200,26 +8546,26 @@
       <c r="A25" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B25" s="72" t="s">
+      <c r="B25" s="73" t="s">
         <v>126</v>
       </c>
       <c r="C25" s="22"/>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="67" t="s">
         <v>127</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="67" t="s">
+      <c r="F25" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="G25" s="57" t="s">
+      <c r="G25" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="66" t="s">
+      <c r="H25" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="57">
+      <c r="I25" s="58">
         <v>200</v>
       </c>
     </row>
@@ -8227,17 +8573,17 @@
       <c r="A26" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="73" t="s">
+      <c r="B26" s="74" t="s">
         <v>130</v>
       </c>
       <c r="C26" s="21"/>
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="65" t="s">
         <v>128</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="65" t="s">
+      <c r="F26" s="66" t="s">
         <v>129</v>
       </c>
       <c r="G26" s="42" t="s">
@@ -8251,43 +8597,43 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="150">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="75" t="s">
         <v>132</v>
       </c>
       <c r="C27" s="22"/>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="67" t="s">
+      <c r="E27" s="17"/>
+      <c r="F27" s="68" t="s">
         <v>129</v>
       </c>
-      <c r="G27" s="57" t="s">
+      <c r="G27" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="57" t="s">
+      <c r="H27" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="57">
+      <c r="I27" s="58">
         <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="150">
       <c r="A28" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="74" t="s">
         <v>131</v>
       </c>
       <c r="C28" s="21"/>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="65" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="66" t="s">
         <v>129</v>
       </c>
       <c r="G28" s="42" t="s">
@@ -8298,6 +8644,239 @@
       </c>
       <c r="I28" s="42">
         <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="105">
+      <c r="A29" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="120">
+      <c r="A30" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="105">
+      <c r="A31" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" s="58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="105">
+      <c r="A32" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="105">
+      <c r="A33" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="68" t="s">
+        <v>156</v>
+      </c>
+      <c r="G33" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" s="58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="75">
+      <c r="A34" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="74" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="65" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="G34" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="90">
+      <c r="A35" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" s="22"/>
+      <c r="D35" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="G35" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" s="58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="75">
+      <c r="A36" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="G36" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="90">
+      <c r="A37" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="G37" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" s="58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15">
+      <c r="A38" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" s="76" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -8325,8 +8904,14 @@
     <hyperlink ref="F24" r:id="rId20" xr:uid="{338BCF75-B249-FD42-9E03-5DB104BA6359}"/>
     <hyperlink ref="F25" r:id="rId21" xr:uid="{F4BB4557-24FA-E64B-99F0-631A5CD83FD9}"/>
     <hyperlink ref="F26" r:id="rId22" xr:uid="{0C5B6C46-703D-444F-8F51-F4E66472A823}"/>
-    <hyperlink ref="F27" r:id="rId23" xr:uid="{5F9CE976-97D0-634E-933C-DA4B46315A87}"/>
+    <hyperlink ref="F29" r:id="rId23" xr:uid="{0DC67608-C8E5-6C49-A1A8-C3A32FA839E8}"/>
     <hyperlink ref="F28" r:id="rId24" xr:uid="{CE615689-8483-DE41-8B6C-0108C5E8CF02}"/>
+    <hyperlink ref="F27" r:id="rId25" xr:uid="{5F9CE976-97D0-634E-933C-DA4B46315A87}"/>
+    <hyperlink ref="F33" r:id="rId26" xr:uid="{040850C3-3B9C-084D-A6FB-8778D84D7815}"/>
+    <hyperlink ref="F32" r:id="rId27" xr:uid="{913E2233-46F0-0542-9401-D385FF634EE5}"/>
+    <hyperlink ref="F31" r:id="rId28" xr:uid="{8CC31DB6-B254-354A-8B72-37A733985E5F}"/>
+    <hyperlink ref="F30" r:id="rId29" xr:uid="{A3E39CA6-8E1A-144B-8264-668A29F1F1F9}"/>
+    <hyperlink ref="F34" r:id="rId30" xr:uid="{99F14B4E-038E-A14E-97A2-FD494A252277}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/woniuBoss/data/woniuBoss_test_cases.xlsx
+++ b/woniuBoss/data/woniuBoss_test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zilong/Documents/蜗牛Boss测试/Git/woniuBoss/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E185E105-691C-9F4D-87A8-18002F6DF284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8FC0FB-64B8-E647-8FA2-0301DEBBFD49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="460" windowWidth="30720" windowHeight="17220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="202">
   <si>
     <t>用例编号</t>
   </si>
@@ -6904,40 +6904,410 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">pageSize=10
+    <t>ATTEND-RESULT-003</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTEND-RESULT-005</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE-TEST-002</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryPhaseExamStuByInfo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE-TEST-003</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAGE-TEST-004</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXAM-RECORD-005</t>
+  </si>
+  <si>
+    <t>EXAM-RECORD-001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>测评记录</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/showPhaseExam1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/showPhaseExam</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize=10
+pageIndex=1
+stuClass=
+orientation=
+stuName=
+phase=</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXAM-RECORD-002</t>
+  </si>
+  <si>
+    <t>pageSize=10
+pageIndex=1
+stuClass=WNCDC035
+orientation=
+stuName=
+phase=</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXAM-RECORD-003</t>
+  </si>
+  <si>
+    <t>EXAM-RECORD-004</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测评记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>班级</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测评记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-方向</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测评记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-阶段</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测评记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-姓名</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pageSize=10
+pageIndex=1
+stuClass=
+orientation=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">公共基础阶段
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>stuName=
+phase=</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pageSize=10
+pageIndex=1
+stuClass=
+orientation=
+stuName=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">冷佩
+</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize=10
 pageIndex=1
 stuClass=
 orientation=
 stuName=冷佩
-</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAGE-TEST-005</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTEND-RESULT-003</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTEND-RESULT-005</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAGE-TEST-002</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryPhaseExamStuByInfo</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAGE-TEST-003</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STAGE-TEST-004</t>
+phase=</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANAGE-CLASS-001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANAGE-CLASS-002</t>
+  </si>
+  <si>
+    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuOfClassByInfo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize=20
+pageIndex=1
+stuName=</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级管理-默认</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"totalRow":69,"pageNumber":1,"firstPage":true,"lastPage":false,"totalPage":4,"pageSize":20,"list":[{"student_name":"付文攀","orientation":"开发","student_no":"WNCD201706020","student_id":584,"employee_name":"张婷","class_no":"WNCDC027"},{"student_name":"唐一","orientation":"公共","student_no":"WNCD201710001","student_id":721,"employee_name":"郑雪娇","class_no":"WNCDC029"},{"student_name":"谢竺颖","orientation":"开发","student_no":"WNCD201710002","student_id":722,"employee_name":"张婷","class_no":"WNCDC029"},{"student_name":"唐瑶","orientation":"测试","student_no":"WNCD201710003","student_id":723,"employee_name":"邓秋菊","class_no":"WNCDC029"},{"student_name":"马正原","orientation":"测试","student_no":"WNCQ201707002","student_id":828,"employee_name":"倪雪","class_no":"WNCQC006"},{"student_name":"陈洁玉","orientation":"开发","student_no":"WNCQ201707003","student_id":829,"employee_name":"","class_no":"WNCQC003"},{"student_name":"王雪芹","orientation":"开发","student_no":"WNCQ201707004","student_id":830,"employee_name":"","class_no":"WNCQC004"},{"student_name":"李绍杰","orientation":"测试","student_no":"WNCQ201707006","student_id":831,"employee_name":"","class_no":"WNCDC029"},{"student_name":"黎涛","orientation":"测试","student_no":"WNCQ201707007","student_id":832,"employee_name":"","class_no":"WNCDC027"},{"student_name":"黄欣","orientation":"测试","student_no":"WNCQ201707008","student_id":833,"employee_name":"","class_no":"WNCQC006"},{"student_name":"周洁","orientation":"测试","student_no":"WNCQ201708010","student_id":834,"employee_name":"李姣","class_no":"WNCQC006"},{"student_name":"陈怡","orientation":"开发","student_no":"WNCQ201708009","student_id":835,"employee_name":"","class_no":"WNCQC003"},{"student_name":"鞠明志","orientation":"开发","student_no":"WNCQ201709001","student_id":836,"employee_name":"","class_no":"WNCQC004"},{"student_name":"胡新","orientation":"测试","student_no":"WNCQ201709002","student_id":837,"employee_name":"","class_no":"WNCQC006"},{"student_name":"汪建川","orientation":"开发","student_no":"WNCQ201709003","student_id":838,"employee_name":"","class_no":"WNCQC004"},{"student_name":"黄真健","orientation":"开发","student_no":"WNCQ201709005","student_id":839,"employee_name":"","class_no":"WNCQC004"},{"student_name":"易道军","orientation":"开发","student_no":"WNCQ201709006","student_id":840,"employee_name":"","class_no":"WNCQC005"},{"student_name":"李佳益","orientation":"开发","student_no":"WNCQ201709007","student_id":841,"employee_name":"","class_no":"WNCQC004"},{"student_name":"李想","orientation":"开发","student_no":"WNCQ201709008","student_id":842,"employee_name":"","class_no":"WNCQC004"},{"student_name":"游航","orientation":"开发","student_no":"WNCQ201709009","student_id":843,"employee_name":"","class_no":"WNCQC006"}]}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"totalRow":0,"pageNumber":1,"firstPage":true,"lastPage":true,"totalPage":0,"pageSize":20,"list":[]}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>班级管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-默认</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查询</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANAGE-CLASS-003</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>班级管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>姓名认查询</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize=20
+pageIndex=1
+stuName=付文攀</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"totalRow":1,"pageNumber":1,"firstPage":true,"lastPage":true,"totalPage":1,"pageSize":20,"list":[{"student_name":"付文攀","orientation":"开发","student_no":"WNCD201706020","student_id":584,"employee_name":"张婷","class_no":"WNCDC027"}]}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/allocate</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>stuIdArr[]=584
+stuClass=WNCDC027
+orientation=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANAGE-CLASS-004</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>班级管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-分班</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处理完毕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6945,7 +7315,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7052,6 +7422,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -7150,7 +7527,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7337,31 +7714,53 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7877,10 +8276,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67BB38D-4AFA-4A4E-A672-EE8AB4FE9A9A}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -8367,7 +8766,7 @@
       <c r="E18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="67" t="s">
         <v>97</v>
       </c>
       <c r="G18" s="42" t="s">
@@ -8384,23 +8783,23 @@
       <c r="A19" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="69" t="s">
+      <c r="B19" s="70" t="s">
         <v>113</v>
       </c>
       <c r="C19" s="22"/>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="68" t="s">
         <v>123</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="68" t="s">
+      <c r="F19" s="69" t="s">
         <v>97</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="67" t="s">
+      <c r="H19" s="68" t="s">
         <v>104</v>
       </c>
       <c r="I19" s="58">
@@ -8411,7 +8810,7 @@
       <c r="A20" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="71" t="s">
         <v>114</v>
       </c>
       <c r="C20" s="21"/>
@@ -8421,7 +8820,7 @@
       <c r="E20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="66" t="s">
+      <c r="F20" s="67" t="s">
         <v>97</v>
       </c>
       <c r="G20" s="42" t="s">
@@ -8438,7 +8837,7 @@
       <c r="A21" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="72" t="s">
         <v>118</v>
       </c>
       <c r="C21" s="23"/>
@@ -8448,7 +8847,7 @@
       <c r="E21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="72" t="s">
+      <c r="F21" s="73" t="s">
         <v>109</v>
       </c>
       <c r="G21" s="58" t="s">
@@ -8475,7 +8874,7 @@
       <c r="E22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="66" t="s">
+      <c r="F22" s="67" t="s">
         <v>109</v>
       </c>
       <c r="G22" s="42" t="s">
@@ -8502,7 +8901,7 @@
       <c r="E23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="72" t="s">
+      <c r="F23" s="73" t="s">
         <v>108</v>
       </c>
       <c r="G23" s="58" t="s">
@@ -8529,7 +8928,7 @@
       <c r="E24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="66" t="s">
+      <c r="F24" s="67" t="s">
         <v>109</v>
       </c>
       <c r="G24" s="42" t="s">
@@ -8546,23 +8945,23 @@
       <c r="A25" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B25" s="73" t="s">
+      <c r="B25" s="74" t="s">
         <v>126</v>
       </c>
       <c r="C25" s="22"/>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="68" t="s">
         <v>127</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="68" t="s">
+      <c r="F25" s="69" t="s">
         <v>109</v>
       </c>
       <c r="G25" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="67" t="s">
+      <c r="H25" s="68" t="s">
         <v>44</v>
       </c>
       <c r="I25" s="58">
@@ -8573,7 +8972,7 @@
       <c r="A26" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="75" t="s">
         <v>130</v>
       </c>
       <c r="C26" s="21"/>
@@ -8583,7 +8982,7 @@
       <c r="E26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="66" t="s">
+      <c r="F26" s="67" t="s">
         <v>129</v>
       </c>
       <c r="G26" s="42" t="s">
@@ -8600,21 +8999,21 @@
       <c r="A27" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="76" t="s">
         <v>132</v>
       </c>
       <c r="C27" s="22"/>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="68" t="s">
         <v>133</v>
       </c>
       <c r="E27" s="17"/>
-      <c r="F27" s="68" t="s">
+      <c r="F27" s="69" t="s">
         <v>129</v>
       </c>
       <c r="G27" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="67" t="s">
+      <c r="H27" s="68" t="s">
         <v>23</v>
       </c>
       <c r="I27" s="58">
@@ -8625,7 +9024,7 @@
       <c r="A28" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="75" t="s">
         <v>131</v>
       </c>
       <c r="C28" s="21"/>
@@ -8633,7 +9032,7 @@
         <v>134</v>
       </c>
       <c r="E28" s="10"/>
-      <c r="F28" s="66" t="s">
+      <c r="F28" s="67" t="s">
         <v>129</v>
       </c>
       <c r="G28" s="42" t="s">
@@ -8650,21 +9049,21 @@
       <c r="A29" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="76" t="s">
         <v>139</v>
       </c>
       <c r="C29" s="22"/>
-      <c r="D29" s="67" t="s">
+      <c r="D29" s="68" t="s">
         <v>138</v>
       </c>
       <c r="E29" s="17"/>
-      <c r="F29" s="68" t="s">
+      <c r="F29" s="69" t="s">
         <v>144</v>
       </c>
       <c r="G29" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="67" t="s">
+      <c r="H29" s="68" t="s">
         <v>44</v>
       </c>
       <c r="I29" s="58">
@@ -8675,7 +9074,7 @@
       <c r="A30" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="74" t="s">
+      <c r="B30" s="75" t="s">
         <v>140</v>
       </c>
       <c r="C30" s="21"/>
@@ -8683,7 +9082,7 @@
         <v>145</v>
       </c>
       <c r="E30" s="10"/>
-      <c r="F30" s="66" t="s">
+      <c r="F30" s="67" t="s">
         <v>156</v>
       </c>
       <c r="G30" s="42" t="s">
@@ -8698,23 +9097,23 @@
     </row>
     <row r="31" spans="1:9" ht="105">
       <c r="A31" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="B31" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" s="76" t="s">
         <v>141</v>
       </c>
       <c r="C31" s="22"/>
-      <c r="D31" s="67" t="s">
+      <c r="D31" s="68" t="s">
         <v>146</v>
       </c>
       <c r="E31" s="17"/>
-      <c r="F31" s="68" t="s">
+      <c r="F31" s="69" t="s">
         <v>156</v>
       </c>
       <c r="G31" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="67" t="s">
+      <c r="H31" s="68" t="s">
         <v>44</v>
       </c>
       <c r="I31" s="58">
@@ -8725,7 +9124,7 @@
       <c r="A32" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="75" t="s">
         <v>142</v>
       </c>
       <c r="C32" s="21"/>
@@ -8733,7 +9132,7 @@
         <v>147</v>
       </c>
       <c r="E32" s="10"/>
-      <c r="F32" s="66" t="s">
+      <c r="F32" s="67" t="s">
         <v>156</v>
       </c>
       <c r="G32" s="42" t="s">
@@ -8748,23 +9147,23 @@
     </row>
     <row r="33" spans="1:9" ht="105">
       <c r="A33" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B33" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" s="76" t="s">
         <v>143</v>
       </c>
       <c r="C33" s="22"/>
-      <c r="D33" s="67" t="s">
+      <c r="D33" s="68" t="s">
         <v>148</v>
       </c>
       <c r="E33" s="17"/>
-      <c r="F33" s="68" t="s">
+      <c r="F33" s="69" t="s">
         <v>156</v>
       </c>
       <c r="G33" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="67" t="s">
+      <c r="H33" s="68" t="s">
         <v>44</v>
       </c>
       <c r="I33" s="58">
@@ -8775,7 +9174,7 @@
       <c r="A34" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="75" t="s">
         <v>153</v>
       </c>
       <c r="C34" s="21"/>
@@ -8783,7 +9182,7 @@
         <v>154</v>
       </c>
       <c r="E34" s="10"/>
-      <c r="F34" s="66" t="s">
+      <c r="F34" s="67" t="s">
         <v>155</v>
       </c>
       <c r="G34" s="42" t="s">
@@ -8798,23 +9197,23 @@
     </row>
     <row r="35" spans="1:9" ht="90">
       <c r="A35" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="B35" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="76" t="s">
         <v>158</v>
       </c>
       <c r="C35" s="22"/>
-      <c r="D35" s="67" t="s">
+      <c r="D35" s="68" t="s">
         <v>157</v>
       </c>
       <c r="E35" s="17"/>
-      <c r="F35" s="68" t="s">
-        <v>167</v>
+      <c r="F35" s="69" t="s">
+        <v>165</v>
       </c>
       <c r="G35" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="67" t="s">
+      <c r="H35" s="78" t="s">
         <v>44</v>
       </c>
       <c r="I35" s="58">
@@ -8823,9 +9222,9 @@
     </row>
     <row r="36" spans="1:9" ht="75">
       <c r="A36" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B36" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36" s="75" t="s">
         <v>159</v>
       </c>
       <c r="C36" s="21"/>
@@ -8833,8 +9232,8 @@
         <v>161</v>
       </c>
       <c r="E36" s="10"/>
-      <c r="F36" s="66" t="s">
-        <v>167</v>
+      <c r="F36" s="67" t="s">
+        <v>165</v>
       </c>
       <c r="G36" s="42" t="s">
         <v>22</v>
@@ -8848,35 +9247,252 @@
     </row>
     <row r="37" spans="1:9" ht="90">
       <c r="A37" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="B37" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="B37" s="76" t="s">
         <v>160</v>
       </c>
       <c r="C37" s="22"/>
-      <c r="D37" s="67" t="s">
-        <v>162</v>
+      <c r="D37" s="68" t="s">
+        <v>183</v>
       </c>
       <c r="E37" s="17"/>
-      <c r="F37" s="68" t="s">
-        <v>167</v>
+      <c r="F37" s="69" t="s">
+        <v>165</v>
       </c>
       <c r="G37" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="67" t="s">
+      <c r="H37" s="78" t="s">
         <v>44</v>
       </c>
       <c r="I37" s="58">
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15">
+    <row r="38" spans="1:9" ht="90">
       <c r="A38" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="B38" s="76" t="s">
-        <v>153</v>
+        <v>169</v>
+      </c>
+      <c r="B38" s="80" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="32"/>
+      <c r="D38" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" s="32"/>
+      <c r="F38" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="G38" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" s="82">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="105">
+      <c r="A39" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="22"/>
+      <c r="D39" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="G39" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="105">
+      <c r="A40" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40" s="79" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" s="22"/>
+      <c r="D40" s="68" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" s="22"/>
+      <c r="F40" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="G40" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="I40" s="58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="105">
+      <c r="A41" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="68" t="s">
+        <v>182</v>
+      </c>
+      <c r="E41" s="22"/>
+      <c r="F41" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="G41" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="90">
+      <c r="A42" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42" s="79" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="68" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" s="22"/>
+      <c r="F42" s="69" t="s">
+        <v>172</v>
+      </c>
+      <c r="G42" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" s="58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="45">
+      <c r="A43" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="E43" s="23"/>
+      <c r="F43" s="73" t="s">
+        <v>155</v>
+      </c>
+      <c r="G43" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="I43" s="58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="409.6">
+      <c r="A44" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B44" s="84" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" s="66"/>
+      <c r="D44" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" s="66"/>
+      <c r="F44" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="G44" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="I44" s="58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="90">
+      <c r="A45" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B45" s="84" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="77" t="s">
+        <v>195</v>
+      </c>
+      <c r="E45" s="23"/>
+      <c r="F45" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="G45" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="I45" s="58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="60">
+      <c r="A46" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" s="84" t="s">
+        <v>200</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="E46" s="23"/>
+      <c r="F46" s="73" t="s">
+        <v>197</v>
+      </c>
+      <c r="G46" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="I46" s="58">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -8912,6 +9528,15 @@
     <hyperlink ref="F31" r:id="rId28" xr:uid="{8CC31DB6-B254-354A-8B72-37A733985E5F}"/>
     <hyperlink ref="F30" r:id="rId29" xr:uid="{A3E39CA6-8E1A-144B-8264-668A29F1F1F9}"/>
     <hyperlink ref="F34" r:id="rId30" xr:uid="{99F14B4E-038E-A14E-97A2-FD494A252277}"/>
+    <hyperlink ref="F38" r:id="rId31" xr:uid="{5D1F9E35-5730-5748-B157-AA0965251E23}"/>
+    <hyperlink ref="F39" r:id="rId32" xr:uid="{CB054640-0937-284E-A703-326291237191}"/>
+    <hyperlink ref="F40" r:id="rId33" xr:uid="{3043C6E0-18DB-2D42-811F-3D50D767A6FF}"/>
+    <hyperlink ref="F41" r:id="rId34" xr:uid="{F15C1AE7-CC5E-D348-BB9B-38ECD8C49DC2}"/>
+    <hyperlink ref="F42" r:id="rId35" xr:uid="{4C670C0C-A138-7449-AD38-4BBA6542C61C}"/>
+    <hyperlink ref="F43" r:id="rId36" xr:uid="{A99400FA-5455-7844-A00D-A2232E2C519D}"/>
+    <hyperlink ref="F44" r:id="rId37" xr:uid="{6E16BBF3-A7CB-E744-A922-5EA6DB4C0AC9}"/>
+    <hyperlink ref="F45" r:id="rId38" xr:uid="{747531CE-6168-A042-888C-0BBFD459B84B}"/>
+    <hyperlink ref="F46" r:id="rId39" xr:uid="{C5DA1E9F-C8CD-5948-BDE1-7CD330F2623D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/woniuBoss/data/woniuBoss_test_cases.xlsx
+++ b/woniuBoss/data/woniuBoss_test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zilong/Documents/蜗牛Boss测试/Git/woniuBoss/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8FC0FB-64B8-E647-8FA2-0301DEBBFD49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA9B66E-2903-8445-A11F-861D5E4116BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="30720" windowHeight="17220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1940" windowWidth="30720" windowHeight="17220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="218">
   <si>
     <t>用例编号</t>
   </si>
@@ -7310,12 +7310,1319 @@
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>MANAGE-COURSE-001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MANAGE-COURSE-002</t>
+  </si>
+  <si>
+    <t>MANAGE-COURSE-003</t>
+  </si>
+  <si>
+    <t>MANAGE-COURSE-004</t>
+  </si>
+  <si>
+    <t>MANAGE-COURSE-005</t>
+  </si>
+  <si>
+    <t>MANAGE-COURSE-006</t>
+  </si>
+  <si>
+    <t>课程安排-查询</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryCourse</t>
+  </si>
+  <si>
+    <t>pageSize=10
+pageIndex=1
+courseTime=
+courseTeacher=全部</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pageSize=10
+pageIndex=1
+courseTime=
+courseTeacher=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>WNCD005</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryCourseByInfo</t>
+  </si>
+  <si>
+    <r>
+      <t>{"totalRow":22,"pageNumber":1,"firstPage":true,"lastPage":false,"totalPage":3,"pageSize":10,"list":[{"start_time":"2018-06-04","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","classroom_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教室一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","teacher_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","course_name":"Struts+Hibernate","end_time":"2018-06-23","employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李懿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","id":654,"class_no":"WNCDC032","plan":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第三阶段第一周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"},{"start_time":"2018-05-28","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","classroom_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教室七</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","teacher_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","course_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","end_time":"2018-06-02","employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李懿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","id":635,"class_no":"WNCDC031","plan":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目阶段第一周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"},{"start_time":"2018-05-21","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","classroom_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教室七</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","teacher_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","course_name":"Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序设计基础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","end_time":"2018-05-27","employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李懿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","id":578,"class_no":"WNCDC033","plan":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一阶段第一周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"},{"start_time":"2018-05-13","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","classroom_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教室七</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","teacher_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","course_name":"Spring+SpringMVC","end_time":"2018-05-20","employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李懿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","id":570,"class_no":"WNCDC031","plan":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第三阶段第二周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"},{"start_time":"2018-05-07","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","classroom_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教室四</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","teacher_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","course_name":"Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序设计基础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","end_time":"2018-05-11","employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李懿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","id":431,"class_no":"WNCDC031","plan":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一阶段第一周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"},{"start_time":"2018-04-28","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","classroom_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教室七</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","teacher_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","course_name":"Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序设计基础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","end_time":"2018-05-01","employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李懿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","id":422,"class_no":"WNCDC030","plan":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一阶段第一周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"},{"start_time":"2018-04-23","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","classroom_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教室七</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","teacher_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","course_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","end_time":"2018-04-27","employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李懿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","id":413,"class_no":"WNCDC030","plan":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目阶段第二周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"},{"start_time":"2018-04-16","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","classroom_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教室七</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","teacher_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","course_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","end_time":"2018-04-20","employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李懿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","id":390,"class_no":"WNCDC030","plan":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目阶段第一周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"},{"start_time":"2018-04-09","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","classroom_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教室七</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","teacher_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","course_name":"Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序设计基础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","end_time":"2018-04-13","employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李懿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","id":363,"class_no":"WNCDC030","plan":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一阶段第一周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"},{"start_time":"2018-04-02","orientation":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","classroom_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教室七</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","teacher_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","course_name":"Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序设计基础</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","end_time":"2018-04-09","employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李懿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","id":353,"class_no":"WNCDC029","plan":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第一阶段第一周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"}]}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>课程安排</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>讲师查询</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>课程安排</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>讲师(全部)查询</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pageSize=10
+pageIndex=1
+courseTime=
+courseTeacher=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"totalRow":176,"pageNumber":1,"firstPage":true,"lastPage":false,"totalPage":18,"pageSize":10,"list":[{"start_time":"2018-06-04","orientation":"测试","classroom_name":"教室四","teacher_status":"正常","course_name":"Selenium自动化","end_time":"2018-06-23","employee_name":"周海峰","id":656,"class_no":"WNCDC033","plan":"第二阶段第一周"},{"start_time":"2018-06-04","orientation":"测试","classroom_name":"教室五","teacher_status":"正常","course_name":"RobotFramework框架","end_time":"2018-06-23","employee_name":"曾云莲","id":659,"class_no":"WNCDC032","plan":"第三阶段第一周"},{"start_time":"2018-06-04","orientation":"开发","classroom_name":"教室一","teacher_status":"正常","course_name":"Struts+Hibernate","end_time":"2018-06-23","employee_name":"李懿","id":654,"class_no":"WNCDC032","plan":"第三阶段第一周"},{"start_time":"2018-06-04","orientation":"开发","classroom_name":"教室二","teacher_status":"正常","course_name":"坦克大战","end_time":"2018-06-23","employee_name":"许敏","id":657,"class_no":"WNCDC033","plan":"第一阶段第三周"},{"start_time":"2018-06-04","orientation":"公共","classroom_name":"教室一","teacher_status":"正常","course_name":"HTML5+CSS3","end_time":"2018-06-23","employee_name":"邓乃文","id":658,"class_no":"WNCDC034","plan":"基础阶段第一周"},{"start_time":"2018-05-28","orientation":"开发","classroom_name":"教室一","teacher_status":"正常","course_name":"Java进阶","end_time":"2018-06-02","employee_name":"代虎军","id":642,"class_no":"WNCDC033","plan":"第一阶段第二周"},{"start_time":"2018-05-28","orientation":"测试","classroom_name":"教室五","teacher_status":"正常","course_name":"性能测试","end_time":"2018-06-02","employee_name":"周海峰","id":637,"class_no":"WNCDC032","plan":"第二阶段第三周"},{"start_time":"2018-05-28","orientation":"测试","classroom_name":"教室四","teacher_status":"正常","course_name":"网络协议+实战项目","end_time":"2018-06-02","employee_name":"徐小兵","id":641,"class_no":"WNCDC033","plan":"第一阶段第三周"},{"start_time":"2018-05-28","orientation":"测试","classroom_name":"教室六","teacher_status":"正常","course_name":"RobotFramework框架","end_time":"2018-06-02","employee_name":"曾云莲","id":640,"class_no":"WNCDC032","plan":"第三阶段第一周"},{"start_time":"2018-05-28","orientation":"开发","classroom_name":"教室七","teacher_status":"正常","course_name":"项目","end_time":"2018-06-02","employee_name":"李懿","id":635,"class_no":"WNCDC031","plan":"项目阶段第一周"}]}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7432,6 +8739,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -7527,7 +8841,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7669,6 +8983,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -7722,10 +9039,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7737,6 +9060,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -8105,7 +9431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -8276,10 +9602,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67BB38D-4AFA-4A4E-A672-EE8AB4FE9A9A}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -8617,29 +9943,29 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="51" t="s">
+      <c r="C13" s="55"/>
+      <c r="D13" s="52" t="s">
         <v>84</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="56" t="s">
+      <c r="G13" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="57" t="s">
+      <c r="H13" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="58">
+      <c r="I13" s="59">
         <v>200</v>
       </c>
       <c r="J13" s="48"/>
@@ -8648,7 +9974,7 @@
       <c r="A14" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="60" t="s">
         <v>73</v>
       </c>
       <c r="C14" s="6"/>
@@ -8658,13 +9984,13 @@
       <c r="E14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="60" t="s">
+      <c r="F14" s="61" t="s">
         <v>75</v>
       </c>
       <c r="G14" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="61" t="s">
+      <c r="H14" s="62" t="s">
         <v>76</v>
       </c>
       <c r="I14" s="42">
@@ -8675,7 +10001,7 @@
       <c r="A15" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="63" t="s">
         <v>99</v>
       </c>
       <c r="C15" s="23"/>
@@ -8685,16 +10011,16 @@
       <c r="E15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="63" t="s">
+      <c r="F15" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="59" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="I15" s="58">
+      <c r="I15" s="59">
         <v>200</v>
       </c>
     </row>
@@ -8702,11 +10028,11 @@
       <c r="A16" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="65" t="s">
         <v>100</v>
       </c>
       <c r="C16" s="21"/>
-      <c r="D16" s="65" t="s">
+      <c r="D16" s="66" t="s">
         <v>106</v>
       </c>
       <c r="E16" s="10" t="s">
@@ -8718,7 +10044,7 @@
       <c r="G16" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="65" t="s">
+      <c r="H16" s="66" t="s">
         <v>90</v>
       </c>
       <c r="I16" s="42">
@@ -8729,7 +10055,7 @@
       <c r="A17" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="63" t="s">
         <v>101</v>
       </c>
       <c r="C17" s="23"/>
@@ -8742,7 +10068,7 @@
       <c r="F17" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="59" t="s">
         <v>22</v>
       </c>
       <c r="H17" s="27" t="s">
@@ -8756,23 +10082,23 @@
       <c r="A18" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="66" t="s">
         <v>88</v>
       </c>
       <c r="C18" s="21"/>
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="66" t="s">
         <v>98</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="67" t="s">
+      <c r="F18" s="68" t="s">
         <v>97</v>
       </c>
       <c r="G18" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="65" t="s">
+      <c r="H18" s="66" t="s">
         <v>44</v>
       </c>
       <c r="I18" s="42">
@@ -8783,26 +10109,26 @@
       <c r="A19" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="72" t="s">
         <v>113</v>
       </c>
       <c r="C19" s="22"/>
-      <c r="D19" s="68" t="s">
+      <c r="D19" s="69" t="s">
         <v>123</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="69" t="s">
+      <c r="F19" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="68" t="s">
+      <c r="H19" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="I19" s="58">
+      <c r="I19" s="59">
         <v>200</v>
       </c>
     </row>
@@ -8810,23 +10136,23 @@
       <c r="A20" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="73" t="s">
         <v>114</v>
       </c>
       <c r="C20" s="21"/>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="66" t="s">
         <v>107</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="67" t="s">
+      <c r="F20" s="68" t="s">
         <v>97</v>
       </c>
       <c r="G20" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="65" t="s">
+      <c r="H20" s="66" t="s">
         <v>105</v>
       </c>
       <c r="I20" s="42">
@@ -8837,7 +10163,7 @@
       <c r="A21" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="75" t="s">
         <v>118</v>
       </c>
       <c r="C21" s="23"/>
@@ -8847,16 +10173,16 @@
       <c r="E21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="73" t="s">
+      <c r="F21" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="59" t="s">
         <v>22</v>
       </c>
       <c r="H21" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="58">
+      <c r="I21" s="59">
         <v>200</v>
       </c>
     </row>
@@ -8864,23 +10190,23 @@
       <c r="A22" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="65" t="s">
         <v>119</v>
       </c>
       <c r="C22" s="21"/>
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="66" t="s">
         <v>116</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="67" t="s">
+      <c r="F22" s="68" t="s">
         <v>109</v>
       </c>
       <c r="G22" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="65" t="s">
+      <c r="H22" s="66" t="s">
         <v>44</v>
       </c>
       <c r="I22" s="42">
@@ -8891,7 +10217,7 @@
       <c r="A23" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="63" t="s">
         <v>120</v>
       </c>
       <c r="C23" s="23"/>
@@ -8901,16 +10227,16 @@
       <c r="E23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="73" t="s">
+      <c r="F23" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="G23" s="58" t="s">
+      <c r="G23" s="59" t="s">
         <v>22</v>
       </c>
       <c r="H23" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="58">
+      <c r="I23" s="59">
         <v>200</v>
       </c>
     </row>
@@ -8918,23 +10244,23 @@
       <c r="A24" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="66" t="s">
         <v>122</v>
       </c>
       <c r="C24" s="21"/>
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="66" t="s">
         <v>124</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="67" t="s">
+      <c r="F24" s="68" t="s">
         <v>109</v>
       </c>
       <c r="G24" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="65" t="s">
+      <c r="H24" s="66" t="s">
         <v>44</v>
       </c>
       <c r="I24" s="42">
@@ -8945,26 +10271,26 @@
       <c r="A25" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="77" t="s">
         <v>126</v>
       </c>
       <c r="C25" s="22"/>
-      <c r="D25" s="68" t="s">
+      <c r="D25" s="69" t="s">
         <v>127</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="69" t="s">
+      <c r="F25" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="G25" s="58" t="s">
+      <c r="G25" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="68" t="s">
+      <c r="H25" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="58">
+      <c r="I25" s="59">
         <v>200</v>
       </c>
     </row>
@@ -8972,17 +10298,17 @@
       <c r="A26" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="75" t="s">
+      <c r="B26" s="78" t="s">
         <v>130</v>
       </c>
       <c r="C26" s="21"/>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="66" t="s">
         <v>128</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="67" t="s">
+      <c r="F26" s="68" t="s">
         <v>129</v>
       </c>
       <c r="G26" s="42" t="s">
@@ -8999,24 +10325,24 @@
       <c r="A27" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="80" t="s">
         <v>132</v>
       </c>
       <c r="C27" s="22"/>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="69" t="s">
         <v>133</v>
       </c>
       <c r="E27" s="17"/>
-      <c r="F27" s="69" t="s">
+      <c r="F27" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="G27" s="58" t="s">
+      <c r="G27" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="68" t="s">
+      <c r="H27" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="I27" s="58">
+      <c r="I27" s="59">
         <v>200</v>
       </c>
     </row>
@@ -9024,15 +10350,15 @@
       <c r="A28" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="78" t="s">
         <v>131</v>
       </c>
       <c r="C28" s="21"/>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="66" t="s">
         <v>134</v>
       </c>
       <c r="E28" s="10"/>
-      <c r="F28" s="67" t="s">
+      <c r="F28" s="68" t="s">
         <v>129</v>
       </c>
       <c r="G28" s="42" t="s">
@@ -9049,24 +10375,24 @@
       <c r="A29" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="80" t="s">
         <v>139</v>
       </c>
       <c r="C29" s="22"/>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="69" t="s">
         <v>138</v>
       </c>
       <c r="E29" s="17"/>
-      <c r="F29" s="69" t="s">
+      <c r="F29" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="G29" s="58" t="s">
+      <c r="G29" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="68" t="s">
+      <c r="H29" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="I29" s="58">
+      <c r="I29" s="59">
         <v>200</v>
       </c>
     </row>
@@ -9074,15 +10400,15 @@
       <c r="A30" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="78" t="s">
         <v>140</v>
       </c>
       <c r="C30" s="21"/>
-      <c r="D30" s="65" t="s">
+      <c r="D30" s="66" t="s">
         <v>145</v>
       </c>
       <c r="E30" s="10"/>
-      <c r="F30" s="67" t="s">
+      <c r="F30" s="68" t="s">
         <v>156</v>
       </c>
       <c r="G30" s="42" t="s">
@@ -9099,24 +10425,24 @@
       <c r="A31" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="80" t="s">
         <v>141</v>
       </c>
       <c r="C31" s="22"/>
-      <c r="D31" s="68" t="s">
+      <c r="D31" s="69" t="s">
         <v>146</v>
       </c>
       <c r="E31" s="17"/>
-      <c r="F31" s="69" t="s">
+      <c r="F31" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="G31" s="58" t="s">
+      <c r="G31" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="68" t="s">
+      <c r="H31" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="I31" s="58">
+      <c r="I31" s="59">
         <v>200</v>
       </c>
     </row>
@@ -9124,15 +10450,15 @@
       <c r="A32" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="78" t="s">
         <v>142</v>
       </c>
       <c r="C32" s="21"/>
-      <c r="D32" s="65" t="s">
+      <c r="D32" s="66" t="s">
         <v>147</v>
       </c>
       <c r="E32" s="10"/>
-      <c r="F32" s="67" t="s">
+      <c r="F32" s="68" t="s">
         <v>156</v>
       </c>
       <c r="G32" s="42" t="s">
@@ -9149,24 +10475,24 @@
       <c r="A33" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="B33" s="76" t="s">
+      <c r="B33" s="80" t="s">
         <v>143</v>
       </c>
       <c r="C33" s="22"/>
-      <c r="D33" s="68" t="s">
+      <c r="D33" s="69" t="s">
         <v>148</v>
       </c>
       <c r="E33" s="17"/>
-      <c r="F33" s="69" t="s">
+      <c r="F33" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="G33" s="58" t="s">
+      <c r="G33" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="68" t="s">
+      <c r="H33" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="I33" s="58">
+      <c r="I33" s="59">
         <v>200</v>
       </c>
     </row>
@@ -9174,15 +10500,15 @@
       <c r="A34" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="78" t="s">
         <v>153</v>
       </c>
       <c r="C34" s="21"/>
-      <c r="D34" s="65" t="s">
+      <c r="D34" s="66" t="s">
         <v>154</v>
       </c>
       <c r="E34" s="10"/>
-      <c r="F34" s="67" t="s">
+      <c r="F34" s="68" t="s">
         <v>155</v>
       </c>
       <c r="G34" s="42" t="s">
@@ -9199,24 +10525,24 @@
       <c r="A35" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="80" t="s">
         <v>158</v>
       </c>
       <c r="C35" s="22"/>
-      <c r="D35" s="68" t="s">
+      <c r="D35" s="69" t="s">
         <v>157</v>
       </c>
       <c r="E35" s="17"/>
-      <c r="F35" s="69" t="s">
+      <c r="F35" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="G35" s="58" t="s">
+      <c r="G35" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="78" t="s">
+      <c r="H35" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="I35" s="58">
+      <c r="I35" s="59">
         <v>200</v>
       </c>
     </row>
@@ -9224,15 +10550,15 @@
       <c r="A36" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B36" s="75" t="s">
+      <c r="B36" s="78" t="s">
         <v>159</v>
       </c>
       <c r="C36" s="21"/>
-      <c r="D36" s="65" t="s">
+      <c r="D36" s="66" t="s">
         <v>161</v>
       </c>
       <c r="E36" s="10"/>
-      <c r="F36" s="67" t="s">
+      <c r="F36" s="68" t="s">
         <v>165</v>
       </c>
       <c r="G36" s="42" t="s">
@@ -9249,24 +10575,24 @@
       <c r="A37" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="80" t="s">
         <v>160</v>
       </c>
       <c r="C37" s="22"/>
-      <c r="D37" s="68" t="s">
+      <c r="D37" s="69" t="s">
         <v>183</v>
       </c>
       <c r="E37" s="17"/>
-      <c r="F37" s="69" t="s">
+      <c r="F37" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="G37" s="58" t="s">
+      <c r="G37" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="78" t="s">
+      <c r="H37" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="I37" s="58">
+      <c r="I37" s="59">
         <v>200</v>
       </c>
     </row>
@@ -9274,7 +10600,7 @@
       <c r="A38" s="50" t="s">
         <v>169</v>
       </c>
-      <c r="B38" s="80" t="s">
+      <c r="B38" s="84" t="s">
         <v>170</v>
       </c>
       <c r="C38" s="32"/>
@@ -9282,16 +10608,16 @@
         <v>173</v>
       </c>
       <c r="E38" s="32"/>
-      <c r="F38" s="81" t="s">
+      <c r="F38" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="G38" s="82" t="s">
+      <c r="G38" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="H38" s="80" t="s">
+      <c r="H38" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="I38" s="82">
+      <c r="I38" s="86">
         <v>200</v>
       </c>
     </row>
@@ -9299,24 +10625,24 @@
       <c r="A39" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="83" t="s">
         <v>178</v>
       </c>
       <c r="C39" s="22"/>
-      <c r="D39" s="68" t="s">
+      <c r="D39" s="69" t="s">
         <v>175</v>
       </c>
       <c r="E39" s="22"/>
-      <c r="F39" s="69" t="s">
+      <c r="F39" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="G39" s="58" t="s">
+      <c r="G39" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="78" t="s">
+      <c r="H39" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="I39" s="58">
+      <c r="I39" s="59">
         <v>200</v>
       </c>
     </row>
@@ -9324,24 +10650,24 @@
       <c r="A40" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="B40" s="79" t="s">
+      <c r="B40" s="83" t="s">
         <v>179</v>
       </c>
       <c r="C40" s="22"/>
-      <c r="D40" s="68" t="s">
+      <c r="D40" s="69" t="s">
         <v>175</v>
       </c>
       <c r="E40" s="22"/>
-      <c r="F40" s="69" t="s">
+      <c r="F40" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="G40" s="58" t="s">
+      <c r="G40" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="78" t="s">
+      <c r="H40" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="I40" s="58">
+      <c r="I40" s="59">
         <v>200</v>
       </c>
     </row>
@@ -9349,24 +10675,24 @@
       <c r="A41" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="B41" s="79" t="s">
+      <c r="B41" s="83" t="s">
         <v>180</v>
       </c>
       <c r="C41" s="22"/>
-      <c r="D41" s="68" t="s">
+      <c r="D41" s="69" t="s">
         <v>182</v>
       </c>
       <c r="E41" s="22"/>
-      <c r="F41" s="69" t="s">
+      <c r="F41" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="G41" s="58" t="s">
+      <c r="G41" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="H41" s="78" t="s">
+      <c r="H41" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="I41" s="58">
+      <c r="I41" s="59">
         <v>200</v>
       </c>
     </row>
@@ -9374,24 +10700,24 @@
       <c r="A42" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="B42" s="79" t="s">
+      <c r="B42" s="83" t="s">
         <v>181</v>
       </c>
       <c r="C42" s="22"/>
-      <c r="D42" s="68" t="s">
+      <c r="D42" s="69" t="s">
         <v>184</v>
       </c>
       <c r="E42" s="22"/>
-      <c r="F42" s="69" t="s">
+      <c r="F42" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="G42" s="58" t="s">
+      <c r="G42" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="H42" s="78" t="s">
+      <c r="H42" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="I42" s="58">
+      <c r="I42" s="59">
         <v>200</v>
       </c>
     </row>
@@ -9407,16 +10733,16 @@
         <v>188</v>
       </c>
       <c r="E43" s="23"/>
-      <c r="F43" s="73" t="s">
+      <c r="F43" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="G43" s="58" t="s">
+      <c r="G43" s="59" t="s">
         <v>22</v>
       </c>
       <c r="H43" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="I43" s="58">
+      <c r="I43" s="59">
         <v>200</v>
       </c>
     </row>
@@ -9424,24 +10750,24 @@
       <c r="A44" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="B44" s="84" t="s">
+      <c r="B44" s="88" t="s">
         <v>192</v>
       </c>
-      <c r="C44" s="66"/>
-      <c r="D44" s="77" t="s">
+      <c r="C44" s="67"/>
+      <c r="D44" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="E44" s="66"/>
-      <c r="F44" s="83" t="s">
+      <c r="E44" s="67"/>
+      <c r="F44" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="G44" s="58" t="s">
+      <c r="G44" s="59" t="s">
         <v>22</v>
       </c>
       <c r="H44" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="I44" s="58">
+      <c r="I44" s="59">
         <v>200</v>
       </c>
     </row>
@@ -9449,24 +10775,24 @@
       <c r="A45" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="B45" s="84" t="s">
+      <c r="B45" s="88" t="s">
         <v>194</v>
       </c>
       <c r="C45" s="23"/>
-      <c r="D45" s="77" t="s">
+      <c r="D45" s="81" t="s">
         <v>195</v>
       </c>
       <c r="E45" s="23"/>
-      <c r="F45" s="83" t="s">
+      <c r="F45" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="G45" s="58" t="s">
+      <c r="G45" s="59" t="s">
         <v>22</v>
       </c>
       <c r="H45" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="I45" s="58">
+      <c r="I45" s="59">
         <v>200</v>
       </c>
     </row>
@@ -9474,7 +10800,7 @@
       <c r="A46" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="B46" s="84" t="s">
+      <c r="B46" s="88" t="s">
         <v>200</v>
       </c>
       <c r="C46" s="23"/>
@@ -9482,17 +10808,101 @@
         <v>198</v>
       </c>
       <c r="E46" s="23"/>
-      <c r="F46" s="73" t="s">
+      <c r="F46" s="76" t="s">
         <v>197</v>
       </c>
-      <c r="G46" s="58" t="s">
+      <c r="G46" s="59" t="s">
         <v>22</v>
       </c>
       <c r="H46" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="I46" s="58">
+      <c r="I46" s="59">
         <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="75">
+      <c r="A47" s="71" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="D47" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="F47" t="s">
+        <v>209</v>
+      </c>
+      <c r="G47" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="I47" s="59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="409.6">
+      <c r="A48" s="71" t="s">
+        <v>203</v>
+      </c>
+      <c r="B48" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="D48" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="F48" t="s">
+        <v>212</v>
+      </c>
+      <c r="G48" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="I48" s="59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="409.6">
+      <c r="A49" s="71" t="s">
+        <v>204</v>
+      </c>
+      <c r="B49" s="74" t="s">
+        <v>215</v>
+      </c>
+      <c r="D49" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="F49" t="s">
+        <v>212</v>
+      </c>
+      <c r="G49" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="I49" s="51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="71" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="71" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="71" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/woniuBoss/data/woniuBoss_test_cases.xlsx
+++ b/woniuBoss/data/woniuBoss_test_cases.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zilong/Documents/蜗牛Boss测试/Git/woniuBoss/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA9B66E-2903-8445-A11F-861D5E4116BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A85C868-FFD6-154F-8294-8F575FDE946D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1940" windowWidth="30720" windowHeight="17220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="460" windowWidth="30720" windowHeight="17220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="student" sheetId="2" r:id="rId2"/>
+    <sheet name="resource" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="225">
   <si>
     <t>用例编号</t>
   </si>
@@ -8615,6 +8616,43 @@
   </si>
   <si>
     <t>{"totalRow":176,"pageNumber":1,"firstPage":true,"lastPage":false,"totalPage":18,"pageSize":10,"list":[{"start_time":"2018-06-04","orientation":"测试","classroom_name":"教室四","teacher_status":"正常","course_name":"Selenium自动化","end_time":"2018-06-23","employee_name":"周海峰","id":656,"class_no":"WNCDC033","plan":"第二阶段第一周"},{"start_time":"2018-06-04","orientation":"测试","classroom_name":"教室五","teacher_status":"正常","course_name":"RobotFramework框架","end_time":"2018-06-23","employee_name":"曾云莲","id":659,"class_no":"WNCDC032","plan":"第三阶段第一周"},{"start_time":"2018-06-04","orientation":"开发","classroom_name":"教室一","teacher_status":"正常","course_name":"Struts+Hibernate","end_time":"2018-06-23","employee_name":"李懿","id":654,"class_no":"WNCDC032","plan":"第三阶段第一周"},{"start_time":"2018-06-04","orientation":"开发","classroom_name":"教室二","teacher_status":"正常","course_name":"坦克大战","end_time":"2018-06-23","employee_name":"许敏","id":657,"class_no":"WNCDC033","plan":"第一阶段第三周"},{"start_time":"2018-06-04","orientation":"公共","classroom_name":"教室一","teacher_status":"正常","course_name":"HTML5+CSS3","end_time":"2018-06-23","employee_name":"邓乃文","id":658,"class_no":"WNCDC034","plan":"基础阶段第一周"},{"start_time":"2018-05-28","orientation":"开发","classroom_name":"教室一","teacher_status":"正常","course_name":"Java进阶","end_time":"2018-06-02","employee_name":"代虎军","id":642,"class_no":"WNCDC033","plan":"第一阶段第二周"},{"start_time":"2018-05-28","orientation":"测试","classroom_name":"教室五","teacher_status":"正常","course_name":"性能测试","end_time":"2018-06-02","employee_name":"周海峰","id":637,"class_no":"WNCDC032","plan":"第二阶段第三周"},{"start_time":"2018-05-28","orientation":"测试","classroom_name":"教室四","teacher_status":"正常","course_name":"网络协议+实战项目","end_time":"2018-06-02","employee_name":"徐小兵","id":641,"class_no":"WNCDC033","plan":"第一阶段第三周"},{"start_time":"2018-05-28","orientation":"测试","classroom_name":"教室六","teacher_status":"正常","course_name":"RobotFramework框架","end_time":"2018-06-02","employee_name":"曾云莲","id":640,"class_no":"WNCDC032","plan":"第三阶段第一周"},{"start_time":"2018-05-28","orientation":"开发","classroom_name":"教室七","teacher_status":"正常","course_name":"项目","end_time":"2018-06-02","employee_name":"李懿","id":635,"class_no":"WNCDC031","plan":"项目阶段第一周"}]}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE-DECODE-001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESOURCE--DECODE-002</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY-POOLTYPE-001</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过资源库查询</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize=10
+pageIndex=4
+status=all
+cusInfo=
+lastStatus=
+empName=
+source=
+s_time=
+e_time=
+poolType=temp</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.114.220:8080/WoniuBoss2.5/resource/queryCusByCusInfo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"totalRow":62,"pageNumber":4,"firstPage":false,"lastPage":false,"totalPage":7,"pageSize":10,"list":[{"qq":"0","work_id":"0","applposition":"游戏策划助理","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"智联招聘","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"朱桁","last_tracking":null,"tel_source":"白城","tel":"15834656789","customer_id":564864,"region":"重庆","age":"1997年10月"},{"qq":"0","work_id":"0","applposition":"PHP开发工程师","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"智联招聘","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"王云凤","last_tracking":null,"tel_source":"重庆","tel":"17823423604","customer_id":564828,"region":"重庆","age":"1997年7月"},{"qq":"0","work_id":"0","applposition":"产品/包装设计助理4K+","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"专属","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"罗艺文","last_tracking":null,"tel_source":"四川眉山市","tel":"18784406671","customer_id":555682,"region":"成都","age":"21"},{"qq":"0","work_id":"0","applposition":"大数据分析实习生","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"58同城","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"向思思","last_tracking":null,"tel_source":"重庆","tel":"13594881704","customer_id":563225,"region":"重庆","age":"23"},{"qq":"0","work_id":"0","applposition":"Java软件开发实习生","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"58同城","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"马汝鑫","last_tracking":null,"tel_source":"重庆","tel":" 13883095247","customer_id":563230,"region":"重庆","age":"22"},{"qq":"0","work_id":"0","applposition":"视频审核实习生","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"专属","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"陈晓宇","last_tracking":null,"tel_source":"成都","tel":"13036671290","customer_id":561074,"region":"成都","age":"1995-09"},{"qq":"0","work_id":"0","applposition":"急聘电气自动化软件实习生","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"专属","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"曾琳屹","last_tracking":null,"tel_source":"四川成都市","tel":"18482109763","customer_id":548702,"region":"成都","age":"21"},{"qq":"0","work_id":"0","applposition":"人事专员/助理 应届生","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"专属","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"姚茜","last_tracking":null,"tel_source":"四川成都市","tel":"13540078471","customer_id":548793,"region":"成都","age":"21"},{"qq":"0","work_id":"0","applposition":"不限","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"专属","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"姚超","last_tracking":null,"tel_source":"四川德阳市","tel":"13281355525","customer_id":548794,"region":"成都","age":"21"},{"qq":"0","work_id":"0","applposition":"新媒体运营/实习生/双休","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"专属","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"李林","last_tracking":null,"tel_source":"四川成都市","tel":"18108113807","customer_id":548904,"region":"成都","age":"22"}]}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9604,8 +9642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67BB38D-4AFA-4A4E-A672-EE8AB4FE9A9A}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -10951,4 +10989,145 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D24470D-AAED-D348-B2EA-0D449E4A8E33}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.5" customWidth="1"/>
+    <col min="9" max="9" width="28.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28">
+      <c r="A2" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28">
+      <c r="A3" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="409.6">
+      <c r="A4" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="81" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" s="67"/>
+      <c r="F4" s="87" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="81" t="s">
+        <v>224</v>
+      </c>
+      <c r="I4" s="67">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{21818423-9413-354B-9EC8-1D431724DA3B}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{3EAFB774-D461-D943-893A-D23ECACD8272}"/>
+    <hyperlink ref="H2" r:id="rId3" display="http://192.168.114.220:8080/WoniuBoss2.5/second?vp=ee" xr:uid="{C7FA4452-8CFB-8042-B92D-C6110983E1B3}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{B21D6780-3029-4B4D-B617-70DB667C6103}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/woniuBoss/data/woniuBoss_test_cases.xlsx
+++ b/woniuBoss/data/woniuBoss_test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zilong/Documents/蜗牛Boss测试/Git/woniuBoss/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A85C868-FFD6-154F-8294-8F575FDE946D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971F8B6A-A29E-7A41-A9AC-85786DD5F2F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="460" windowWidth="30720" windowHeight="17220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="30720" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="236">
   <si>
     <t>用例编号</t>
   </si>
@@ -8635,8 +8635,31 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>http://192.168.114.220:8080/WoniuBoss2.5/resource/queryCusByCusInfo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过来源查询</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUERY-POOLTYPE-002</t>
+  </si>
+  <si>
+    <t>QUERY-POOLTYPE-003</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过状态查询</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过时间查询</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>pageSize=10
-pageIndex=4
+pageIndex=1
 status=all
 cusInfo=
 lastStatus=
@@ -8648,19 +8671,6103 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.114.220:8080/WoniuBoss2.5/resource/queryCusByCusInfo</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"totalRow":62,"pageNumber":4,"firstPage":false,"lastPage":false,"totalPage":7,"pageSize":10,"list":[{"qq":"0","work_id":"0","applposition":"游戏策划助理","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"智联招聘","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"朱桁","last_tracking":null,"tel_source":"白城","tel":"15834656789","customer_id":564864,"region":"重庆","age":"1997年10月"},{"qq":"0","work_id":"0","applposition":"PHP开发工程师","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"智联招聘","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"王云凤","last_tracking":null,"tel_source":"重庆","tel":"17823423604","customer_id":564828,"region":"重庆","age":"1997年7月"},{"qq":"0","work_id":"0","applposition":"产品/包装设计助理4K+","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"专属","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"罗艺文","last_tracking":null,"tel_source":"四川眉山市","tel":"18784406671","customer_id":555682,"region":"成都","age":"21"},{"qq":"0","work_id":"0","applposition":"大数据分析实习生","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"58同城","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"向思思","last_tracking":null,"tel_source":"重庆","tel":"13594881704","customer_id":563225,"region":"重庆","age":"23"},{"qq":"0","work_id":"0","applposition":"Java软件开发实习生","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"58同城","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"马汝鑫","last_tracking":null,"tel_source":"重庆","tel":" 13883095247","customer_id":563230,"region":"重庆","age":"22"},{"qq":"0","work_id":"0","applposition":"视频审核实习生","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"专属","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"陈晓宇","last_tracking":null,"tel_source":"成都","tel":"13036671290","customer_id":561074,"region":"成都","age":"1995-09"},{"qq":"0","work_id":"0","applposition":"急聘电气自动化软件实习生","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"专属","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"曾琳屹","last_tracking":null,"tel_source":"四川成都市","tel":"18482109763","customer_id":548702,"region":"成都","age":"21"},{"qq":"0","work_id":"0","applposition":"人事专员/助理 应届生","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"专属","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"姚茜","last_tracking":null,"tel_source":"四川成都市","tel":"13540078471","customer_id":548793,"region":"成都","age":"21"},{"qq":"0","work_id":"0","applposition":"不限","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"专属","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"姚超","last_tracking":null,"tel_source":"四川德阳市","tel":"13281355525","customer_id":548794,"region":"成都","age":"21"},{"qq":"0","work_id":"0","applposition":"新媒体运营/实习生/双休","next_tracking_time":null,"last_status":"新入库","employee_name":null,"source":"专属","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"李林","last_tracking":null,"tel_source":"四川成都市","tel":"18108113807","customer_id":548904,"region":"成都","age":"22"}]}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <r>
+      <t>pageSize=10
+pageIndex=1
+status=all
+cusInfo=
+lastStatus=
+empName=
+source=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>智联招聘
+s_time=
+e_time=
+poolType=</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pageSize=10
+pageIndex=1
+status=all
+cusInfo=
+lastStatus=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>新入库
+empName=
+source=
+s_time=
+e_time=
+poolType=</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pageSize=10
+pageIndex=1
+status=all
+cusInfo=
+lastStatus=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+empName=
+source=
+s_time=2017-01-01
+e_time=2017-12-01
+poolType=</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{"totalRow":62,"pageNumber":1,"firstPage":true,"lastPage":false,"totalPage":7,"pageSize":10,"list":[{"qq":"0","work_id":"0","applposition":"Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智联招聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冯佳乐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陕西咸阳市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"15596455987","customer_id":592786,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"1996</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"},{"qq":"0","work_id":"0","applposition":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件测试工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智联招聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和平</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陕西西安市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"15934836393","customer_id":590397,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>岁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"},{"qq":"0","work_id":"0","applposition":"Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智联招聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张旭杰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陕西西安市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"13636709376","customer_id":590417,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>岁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"},{"qq":"0","work_id":"0","applposition":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大数据开发工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智联招聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孙小涛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>河南鹤壁市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"15239233375","customer_id":590353,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"1990</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"},{"qq":"0","work_id":"0","applposition":"Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智联招聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>朱小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"15120075940","customer_id":590224,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"1990</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"},{"qq":"0","work_id":"0","applposition":"Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智联招聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈盼盼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陕西西安市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"15289488903","customer_id":590199,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"1990</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"},{"qq":"0","work_id":"0","applposition":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>初级会计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智联招聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万良山</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重庆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"15730240538","customer_id":588515,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重庆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":""},{"qq":"0","work_id":"0","applposition":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>通信工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智联招聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>兰毅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重庆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"18323587999","customer_id":588522,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重庆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":""},{"qq":"0","work_id":"0","applposition":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>初级会计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智联招聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冯诗诗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>辽宁沈阳市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"15840394720","customer_id":588524,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重庆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":""},{"qq":"0","work_id":"0","applposition":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据专员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>统计员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智联招聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刘晓倩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重庆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"15310921839","customer_id":588526,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重庆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":""}]}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{"totalRow":31,"pageNumber":1,"firstPage":true,"lastPage":false,"totalPage":4,"pageSize":10,"list":[{"qq":"0","work_id":"0","applposition":"PHP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智联招聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王云凤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重庆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"17823423604","customer_id":564828,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重庆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"1997</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"},{"qq":"0","work_id":"0","applposition":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>游戏策划助理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智联招聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>朱桁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白城</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"15834656789","customer_id":564864,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重庆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"1997</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"},{"qq":"0","work_id":"0","applposition":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行政前台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智联招聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不需要，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宋慧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陕西西安市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"15829337336","customer_id":579125,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>岁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1995</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)"},{"qq":"0","work_id":"0","applposition":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>硬件测试实习生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智联招聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄宽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重庆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"15334532665","customer_id":582347,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重庆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"1993</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"},{"qq":"0","work_id":"0","applposition":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件测试工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智联招聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孙颖迪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陕西西安市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"18681943837","customer_id":587376,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"1991</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"},{"qq":"0","work_id":"0","applposition":"Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智联招聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>殷启星</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陕西西安市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"15109290204","customer_id":587400,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"1989</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"},{"qq":"0","work_id":"0","applposition":"WEB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前端开发实习生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智联招聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>苗磊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陕西西安市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"18829036723","customer_id":587439,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"1996</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"},{"qq":"0","work_id":"0","applposition":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>急聘数据分析工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智联招聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈立朝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陕西西安市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"18302977300","customer_id":587463,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"1989</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"},{"qq":"0","work_id":"0","applposition":"Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智联招聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寇苗苗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陕西西安市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"13259453096","customer_id":587488,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"1992</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"},{"qq":"0","work_id":"0","applposition":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件测试工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智联招聘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>��","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陕西西安市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"18602940671","customer_id":587495,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西安</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"1990</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"}]}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{"totalRow":62,"pageNumber":1,"firstPage":true,"lastPage":false,"totalPage":7,"pageSize":10,"list":[{"qq":"0","work_id":"0","applposition":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人事专员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>助理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>招聘专员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>助理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":"2017-08-22","last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>找到了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>伍彩霞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":"2017-08-22 ","tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四川成都市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":" 15184441187","customer_id":434593,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":" 22"},{"qq":"0","work_id":"WNCD023","applposition":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>初级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序员助理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李姣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄义洲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":"2017-05-30 ","tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四川南充市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"17790514386","customer_id":544025,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"21"},{"qq":"0","work_id":"WNCD023","applposition":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前端开发助理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李姣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蒲明星</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":"2017-05-30 ","tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四川成都市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"15708450382","customer_id":544215,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"1996/4"},{"qq":"0","work_id":"WNCD033","applposition":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应届生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张婷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陆朋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":"2017-05-30 ","tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四川成都市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"15982087170","customer_id":543803,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"23"},{"qq":"0","work_id":"WNCD064","applposition":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网页设计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应届生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汤雪娜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贾鹏兵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":"2017-05-30 ","tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宁夏石嘴山市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"13099521966","customer_id":543553,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"24"},{"qq":"0","work_id":"0","applposition":"Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发工程师（重庆）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前程无忧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈敬星</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":"2017-05-30 ","tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重庆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"13036385598","customer_id":544904,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重庆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>岁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"},{"qq":"0","work_id":"WNCD033","applposition":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>公司直招视频剪辑实习生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张婷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晋雯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四川成都市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"15828694255","customer_id":545232,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"22"},{"qq":"0","work_id":"WNCD064","applposition":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>求职</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汤雪娜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>廖凯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四川德阳市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"13778228826","customer_id":513698,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"24"},{"qq":"0","work_id":"WNCD064","applposition":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>网页设计或制作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汤雪娜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王茂丹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四川绵阳市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"18683655731","customer_id":546404,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"23"},{"qq":"0","work_id":"WNCD064","applposition":"CAD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>设计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>制图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年以下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汤雪娜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杜小东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四川成都市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"13679093350","customer_id":546453,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"22"}]}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{"totalRow":16,"pageNumber":1,"firstPage":true,"lastPage":false,"totalPage":2,"pageSize":10,"list":[{"qq":"0","work_id":"0","applposition":"Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发工程师（重庆）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前程无忧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈敬星</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":"2017-05-30 ","tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重庆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"13036385598","customer_id":544904,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重庆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>岁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"},{"qq":"0","work_id":"0","applposition":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电子商务助理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>姜升冠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四川眉山市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"18228134123","customer_id":548097,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"1995/8"},{"qq":"0","work_id":"0","applposition":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>嵌入式软件开发（前景广阔）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张家兰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四川眉山市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"14780157978","customer_id":548103,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"1996/6"},{"qq":"0","work_id":"0","applposition":"Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发工程师（成都）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前程无忧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亢立欣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"17611341218","customer_id":548313,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>岁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"},{"qq":"0","work_id":"0","applposition":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>急聘电气自动化软件实习生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>曾琳屹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四川成都市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"18482109763","customer_id":548702,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"21"},{"qq":"0","work_id":"0","applposition":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人事专员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>助理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>应届生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>姚茜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四川成都市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"13540078471","customer_id":548793,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"21"},{"qq":"0","work_id":"0","applposition":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>姚超</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四川德阳市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"13281355525","customer_id":548794,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"21"},{"qq":"0","work_id":"0","applposition":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新媒体运营</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实习生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双休</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李林</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四川成都市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"18108113807","customer_id":548904,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"22"},{"qq":"0","work_id":"0","applposition":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>急招机械自动化工程师助理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>庹万峰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四川成都市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"18780034632","customer_id":548911,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"23"},{"qq":"0","work_id":"0","applposition":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图案编辑优化实习</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>助理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","next_tracking_time":null,"last_status":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新入库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","employee_name":null,"source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专属</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","priority":"","tracking_times":0,"last_tracking_remark":null,"name":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尧凤进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","last_tracking":null,"tel_source":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四川成都市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","tel":"13076062710","customer_id":548921,"region":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","age":"19"}]}</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8759,13 +14866,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
@@ -8879,7 +14979,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9080,23 +15180,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9111,7 +15211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9124,8 +15224,29 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9467,10 +15588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -9485,7 +15606,7 @@
     <col min="8" max="8" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9510,8 +15631,11 @@
       <c r="H1" s="18" t="s">
         <v>25</v>
       </c>
+      <c r="I1" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="42">
+    <row r="2" spans="1:9" ht="42">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -9534,8 +15658,11 @@
       <c r="H2" s="21" t="s">
         <v>23</v>
       </c>
+      <c r="I2" s="25">
+        <v>200</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="42">
+    <row r="3" spans="1:9" ht="42">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -9558,8 +15685,11 @@
       <c r="H3" s="23" t="s">
         <v>24</v>
       </c>
+      <c r="I3" s="37">
+        <v>200</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="42">
+    <row r="4" spans="1:9" ht="42">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -9582,8 +15712,11 @@
       <c r="H4" s="21" t="s">
         <v>24</v>
       </c>
+      <c r="I4" s="25">
+        <v>200</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="42">
+    <row r="5" spans="1:9" ht="42">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -9606,8 +15739,11 @@
       <c r="H5" s="23" t="s">
         <v>24</v>
       </c>
+      <c r="I5" s="37">
+        <v>200</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" ht="42">
+    <row r="6" spans="1:9" ht="42">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -9629,6 +15765,9 @@
       </c>
       <c r="H6" s="21" t="s">
         <v>24</v>
+      </c>
+      <c r="I6" s="25">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -9642,8 +15781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67BB38D-4AFA-4A4E-A672-EE8AB4FE9A9A}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -10993,10 +17132,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D24470D-AAED-D348-B2EA-0D449E4A8E33}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -11012,7 +17151,7 @@
     <col min="9" max="9" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11037,19 +17176,19 @@
       <c r="H1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="90" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:9" ht="15">
+      <c r="A2" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="52" t="s">
+      <c r="C2" s="92"/>
+      <c r="D2" s="20" t="s">
         <v>84</v>
       </c>
       <c r="E2" s="17" t="s">
@@ -11058,18 +17197,18 @@
       <c r="F2" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="93" t="s">
         <v>87</v>
       </c>
       <c r="I2" s="59">
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:9" ht="15">
+      <c r="A3" s="8" t="s">
         <v>219</v>
       </c>
       <c r="B3" s="60" t="s">
@@ -11095,7 +17234,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="409.6">
+    <row r="4" spans="1:9" ht="150">
       <c r="A4" s="67" t="s">
         <v>220</v>
       </c>
@@ -11104,21 +17243,99 @@
       </c>
       <c r="C4" s="67"/>
       <c r="D4" s="81" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E4" s="67"/>
       <c r="F4" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G4" s="67" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="81" t="s">
+        <v>232</v>
+      </c>
+      <c r="I4" s="37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="165">
+      <c r="A5" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="I4" s="67">
+      <c r="B5" s="67" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="81" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="87" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="94" t="s">
+        <v>233</v>
+      </c>
+      <c r="I5" s="37">
         <v>200</v>
       </c>
+    </row>
+    <row r="6" spans="1:9" ht="165">
+      <c r="A6" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="81" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="87" t="s">
+        <v>222</v>
+      </c>
+      <c r="G6" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="I6" s="59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="180">
+      <c r="A7" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="95" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="81" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="87" t="s">
+        <v>222</v>
+      </c>
+      <c r="G7" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="I7" s="59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="H8" s="89"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -11127,6 +17344,9 @@
     <hyperlink ref="F2" r:id="rId2" xr:uid="{3EAFB774-D461-D943-893A-D23ECACD8272}"/>
     <hyperlink ref="H2" r:id="rId3" display="http://192.168.114.220:8080/WoniuBoss2.5/second?vp=ee" xr:uid="{C7FA4452-8CFB-8042-B92D-C6110983E1B3}"/>
     <hyperlink ref="F4" r:id="rId4" xr:uid="{B21D6780-3029-4B4D-B617-70DB667C6103}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{14EC56E3-32E5-4F4B-B3A9-18983A64773C}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{72FC3AFC-8789-BE43-8CA6-B69C88CA6CC1}"/>
+    <hyperlink ref="F7" r:id="rId7" xr:uid="{2818DC8C-A342-0041-B69A-9BC9E945A78E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/woniuBoss/data/woniuBoss_test_cases.xlsx
+++ b/woniuBoss/data/woniuBoss_test_cases.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zilong/Documents/蜗牛Boss测试/Git/woniuBoss/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971F8B6A-A29E-7A41-A9AC-85786DD5F2F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004872ED-9CDD-7F45-89F5-214517813823}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="30720" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2300" yWindow="8700" windowWidth="30720" windowHeight="17220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="student" sheetId="2" r:id="rId2"/>
-    <sheet name="resource" sheetId="3" r:id="rId3"/>
+    <sheet name="student_ui" sheetId="4" r:id="rId2"/>
+    <sheet name="student" sheetId="2" r:id="rId3"/>
+    <sheet name="resource" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="248">
   <si>
     <t>用例编号</t>
   </si>
@@ -14761,6 +14762,54 @@
       </rPr>
       <t>","age":"19"}]}</t>
     </r>
+  </si>
+  <si>
+    <t>解密错误密码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>解密正确密码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>subcode=123456</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>subcode=woniu123</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级选择</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>学员列表</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>select_class=WNCD035</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>select_class=WNCD034</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级密码错误，请重新输入</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>不输入密码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>subcode=</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的输入为空，请重新输入</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -14979,7 +15028,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -15247,6 +15296,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -15590,7 +15642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I6"/>
     </sheetView>
   </sheetViews>
@@ -15778,11 +15830,121 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CF93C4-5D11-764E-88D7-F2374E4FCBEB}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="44.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="28"/>
+      <c r="B3" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15">
+      <c r="A5" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15">
+      <c r="A6" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="96" t="s">
+        <v>243</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67BB38D-4AFA-4A4E-A672-EE8AB4FE9A9A}">
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I3"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -17130,11 +17292,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D24470D-AAED-D348-B2EA-0D449E4A8E33}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -17234,7 +17396,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="150">
+    <row r="4" spans="1:9" ht="409.6">
       <c r="A4" s="67" t="s">
         <v>220</v>
       </c>
@@ -17259,7 +17421,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="165">
+    <row r="5" spans="1:9" ht="409.6">
       <c r="A5" s="67" t="s">
         <v>224</v>
       </c>
@@ -17284,7 +17446,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="165">
+    <row r="6" spans="1:9" ht="409.6">
       <c r="A6" s="67" t="s">
         <v>225</v>
       </c>
@@ -17309,7 +17471,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="180">
+    <row r="7" spans="1:9" ht="409.6">
       <c r="A7" s="67" t="s">
         <v>225</v>
       </c>

--- a/woniuBoss/data/woniuBoss_test_cases.xlsx
+++ b/woniuBoss/data/woniuBoss_test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zilong/Documents/蜗牛Boss测试/Git/woniuBoss/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004872ED-9CDD-7F45-89F5-214517813823}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D435C4-8578-F54A-AFFD-D6A9149D6764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2300" yWindow="8700" windowWidth="30720" windowHeight="17220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="247">
   <si>
     <t>用例编号</t>
   </si>
@@ -14784,18 +14784,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>学员列表</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>select_class=WNCD035</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>select_class=WNCD034</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>二级密码错误，请重新输入</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -14809,6 +14797,14 @@
   </si>
   <si>
     <t>您的输入为空，请重新输入</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>class=WNCDC035</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>class=WNCDC034</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -15834,7 +15830,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -15872,20 +15868,20 @@
         <v>238</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" s="28"/>
       <c r="B3" s="45" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="30" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
@@ -15912,10 +15908,10 @@
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>241</v>
+        <v>245</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
@@ -15927,7 +15923,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="96" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>23</v>

--- a/woniuBoss/data/woniuBoss_test_cases.xlsx
+++ b/woniuBoss/data/woniuBoss_test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zilong/Documents/蜗牛Boss测试/Git/woniuBoss/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D435C4-8578-F54A-AFFD-D6A9149D6764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD9E48C-01F1-8B43-86A5-CC8050CDAE02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="8700" windowWidth="30720" windowHeight="17220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="2200" windowWidth="30720" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="244">
   <si>
     <t>用例编号</t>
   </si>
@@ -128,10 +128,6 @@
   </si>
   <si>
     <t>API接口地址</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.114.220:8080/WoniuBoss2.5/log/userLogin</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -183,9 +179,6 @@
   <si>
     <t>测试入口的接口</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.114.220:8080/WoniuBoss2.5/student</t>
   </si>
   <si>
     <t>GET</t>
@@ -269,10 +262,6 @@
       <t xml:space="preserve">
 stuStatus=</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuInfo</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -5936,22 +5925,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.114.220:8080/WoniuBoss2.5/second?vp=woniu123</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>yes</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>vp=woniu123</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuByInfo</t>
-  </si>
-  <si>
-    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuByInfo</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -6000,22 +5978,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuOfAtten</t>
-  </si>
-  <si>
-    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuOfAtten</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>vp=woniu123123</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>fail</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.114.220:8080/WoniuBoss2.5/second</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -6063,10 +6030,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuOfMornExam</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>pageSize=10
 pageIndex=1
 stuName=</t>
@@ -6118,13 +6081,6 @@
     <t>pageSize=10
 pageIndex=3
 stuName=TTT</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryLeave</t>
-  </si>
-  <si>
-    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryLeave</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -6418,10 +6374,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/saveLeave</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -6731,10 +6683,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryAtteResult1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>pageSize=10
 pageIndex=1
 stuClass=WNCDC035
@@ -6803,14 +6751,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuOfTeacher</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryAtteResult</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>pageSize=10
 pageIndex=1
 stuClass=WNCDC035
@@ -6918,10 +6858,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryPhaseExamStuByInfo</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>STAGE-TEST-003</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -6938,14 +6874,6 @@
   </si>
   <si>
     <t>测评记录</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/showPhaseExam1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/showPhaseExam</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -7145,10 +7073,6 @@
     <t>MANAGE-CLASS-002</t>
   </si>
   <si>
-    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuOfClassByInfo</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>pageSize=20
 pageIndex=1
 stuName=</t>
@@ -7244,10 +7168,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/allocate</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>stuIdArr[]=584
 stuClass=WNCDC027
@@ -7334,9 +7254,6 @@
   <si>
     <t>课程安排-查询</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryCourse</t>
   </si>
   <si>
     <t>pageSize=10
@@ -7365,9 +7282,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.114.220:8080/WoniuBoss2.5/student/queryCourseByInfo</t>
-  </si>
-  <si>
     <r>
       <t>{"totalRow":22,"pageNumber":1,"firstPage":true,"lastPage":false,"totalPage":3,"pageSize":10,"list":[{"start_time":"2018-06-04","orientation":"</t>
     </r>
@@ -8633,10 +8547,6 @@
   </si>
   <si>
     <t>通过资源库查询</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.114.220:8080/WoniuBoss2.5/resource/queryCusByCusInfo</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -14806,6 +14716,69 @@
   <si>
     <t>class=WNCDC034</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.9.10:8080/WoniuBoss2.5/second</t>
+  </si>
+  <si>
+    <t>http://192.168.9.10:8080/WoniuBoss2.5/second?vp=woniu123</t>
+  </si>
+  <si>
+    <t>http://192.168.9.10:8080/WoniuBoss2.5/resource/queryCusByCusInfo</t>
+  </si>
+  <si>
+    <t>http://192.168.9.10:8080/WoniuBoss2.5/student</t>
+  </si>
+  <si>
+    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/queryStuInfo</t>
+  </si>
+  <si>
+    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/queryStuByInfo</t>
+  </si>
+  <si>
+    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/queryStuOfAtten</t>
+  </si>
+  <si>
+    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/queryStuOfMornExam</t>
+  </si>
+  <si>
+    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/queryLeave</t>
+  </si>
+  <si>
+    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/saveLeave</t>
+  </si>
+  <si>
+    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/queryAtteResult1</t>
+  </si>
+  <si>
+    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/queryAtteResult</t>
+  </si>
+  <si>
+    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/queryStuOfTeacher</t>
+  </si>
+  <si>
+    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/queryPhaseExamStuByInfo</t>
+  </si>
+  <si>
+    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/showPhaseExam1</t>
+  </si>
+  <si>
+    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/showPhaseExam</t>
+  </si>
+  <si>
+    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/queryStuOfClassByInfo</t>
+  </si>
+  <si>
+    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/allocate</t>
+  </si>
+  <si>
+    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/queryCourse</t>
+  </si>
+  <si>
+    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/queryCourseByInfo</t>
+  </si>
+  <si>
+    <t>http://192.168.9.10:8080/WoniuBoss2.5/log/userLogin</t>
   </si>
 </sst>
 </file>
@@ -15638,8 +15611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -15677,10 +15650,10 @@
         <v>19</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="42">
@@ -15692,19 +15665,19 @@
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="H2" s="21" t="s">
         <v>22</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>23</v>
       </c>
       <c r="I2" s="25">
         <v>200</v>
@@ -15719,19 +15692,19 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>22</v>
-      </c>
       <c r="H3" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="37">
         <v>200</v>
@@ -15746,19 +15719,19 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>22</v>
-      </c>
       <c r="H4" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="25">
         <v>200</v>
@@ -15773,19 +15746,19 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="G5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="23" t="s">
-        <v>22</v>
-      </c>
       <c r="H5" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="37">
         <v>200</v>
@@ -15800,19 +15773,19 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="G6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="21" t="s">
-        <v>22</v>
-      </c>
       <c r="H6" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="25">
         <v>200</v>
@@ -15829,8 +15802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CF93C4-5D11-764E-88D7-F2374E4FCBEB}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -15858,75 +15831,75 @@
     </row>
     <row r="2" spans="1:5" ht="15">
       <c r="A2" s="28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="30" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" s="28"/>
       <c r="B3" s="45" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="30" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="20" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
       <c r="A5" s="28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="30" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
       <c r="A6" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="96" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -15940,7 +15913,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -15978,18 +15951,18 @@
         <v>19</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15">
       <c r="A2" s="28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="30"/>
@@ -15997,10 +15970,10 @@
         <v>15</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H2" s="39"/>
       <c r="I2" s="25">
@@ -16009,26 +15982,26 @@
     </row>
     <row r="3" spans="1:10" ht="409.6">
       <c r="A3" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I3" s="37">
         <v>200</v>
@@ -16036,26 +16009,26 @@
     </row>
     <row r="4" spans="1:10" ht="370">
       <c r="A4" s="33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="G4" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I4" s="42">
         <v>200</v>
@@ -16063,26 +16036,26 @@
     </row>
     <row r="5" spans="1:10" ht="99">
       <c r="A5" s="26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I5" s="37">
         <v>200</v>
@@ -16090,26 +16063,26 @@
     </row>
     <row r="6" spans="1:10" ht="99">
       <c r="A6" s="33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="35" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="G6" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I6" s="42">
         <v>200</v>
@@ -16117,26 +16090,26 @@
     </row>
     <row r="7" spans="1:10" ht="409.6">
       <c r="A7" s="26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I7" s="37">
         <v>200</v>
@@ -16144,26 +16117,26 @@
     </row>
     <row r="8" spans="1:10" ht="409.6">
       <c r="A8" s="33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="35" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I8" s="42">
         <v>200</v>
@@ -16171,26 +16144,26 @@
     </row>
     <row r="9" spans="1:10" ht="210">
       <c r="A9" s="26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="20" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I9" s="37">
         <v>200</v>
@@ -16198,26 +16171,26 @@
     </row>
     <row r="10" spans="1:10" ht="210">
       <c r="A10" s="33" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="35" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="G10" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I10" s="42">
         <v>200</v>
@@ -16225,26 +16198,26 @@
     </row>
     <row r="11" spans="1:10" ht="409.6">
       <c r="A11" s="26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="20" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="G11" s="37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I11" s="37">
         <v>200</v>
@@ -16252,26 +16225,26 @@
     </row>
     <row r="12" spans="1:10" ht="210">
       <c r="A12" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="35" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I12" s="42">
         <v>200</v>
@@ -16279,26 +16252,26 @@
     </row>
     <row r="13" spans="1:10" ht="15">
       <c r="A13" s="53" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" s="55"/>
       <c r="D13" s="52" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F13" s="56" t="s">
-        <v>86</v>
+        <v>223</v>
       </c>
       <c r="G13" s="57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13" s="58" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I13" s="59">
         <v>200</v>
@@ -16307,26 +16280,26 @@
     </row>
     <row r="14" spans="1:10" ht="15">
       <c r="A14" s="33" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="61" t="s">
-        <v>75</v>
+        <v>224</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H14" s="62" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I14" s="42">
         <v>200</v>
@@ -16334,26 +16307,26 @@
     </row>
     <row r="15" spans="1:10" ht="45">
       <c r="A15" s="26" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="27" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>83</v>
+        <v>229</v>
       </c>
       <c r="G15" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I15" s="59">
         <v>200</v>
@@ -16361,26 +16334,26 @@
     </row>
     <row r="16" spans="1:10" ht="45">
       <c r="A16" s="8" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="66" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>82</v>
+        <v>229</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H16" s="66" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I16" s="42">
         <v>200</v>
@@ -16388,26 +16361,26 @@
     </row>
     <row r="17" spans="1:9" ht="45">
       <c r="A17" s="26" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="27" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>82</v>
+        <v>229</v>
       </c>
       <c r="G17" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H17" s="27" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="I17" s="37">
         <v>200</v>
@@ -16415,26 +16388,26 @@
     </row>
     <row r="18" spans="1:9" ht="45">
       <c r="A18" s="8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="66" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="68" t="s">
-        <v>97</v>
+        <v>230</v>
       </c>
       <c r="G18" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H18" s="66" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I18" s="42">
         <v>200</v>
@@ -16442,26 +16415,26 @@
     </row>
     <row r="19" spans="1:9" ht="45">
       <c r="A19" s="26" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B19" s="72" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="69" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="70" t="s">
-        <v>97</v>
+        <v>230</v>
       </c>
       <c r="G19" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H19" s="69" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="I19" s="59">
         <v>200</v>
@@ -16469,26 +16442,26 @@
     </row>
     <row r="20" spans="1:9" ht="45">
       <c r="A20" s="8" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B20" s="73" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="66" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="68" t="s">
-        <v>97</v>
+        <v>230</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="66" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="I20" s="42">
         <v>200</v>
@@ -16496,26 +16469,26 @@
     </row>
     <row r="21" spans="1:9" ht="60">
       <c r="A21" s="26" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B21" s="75" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="27" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="76" t="s">
-        <v>109</v>
+        <v>231</v>
       </c>
       <c r="G21" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I21" s="59">
         <v>200</v>
@@ -16523,26 +16496,26 @@
     </row>
     <row r="22" spans="1:9" ht="60">
       <c r="A22" s="8" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B22" s="65" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="66" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="68" t="s">
-        <v>109</v>
+        <v>231</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H22" s="66" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="42">
         <v>200</v>
@@ -16550,26 +16523,26 @@
     </row>
     <row r="23" spans="1:9" ht="75">
       <c r="A23" s="26" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B23" s="63" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="27" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>15</v>
       </c>
       <c r="F23" s="76" t="s">
-        <v>108</v>
+        <v>231</v>
       </c>
       <c r="G23" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I23" s="59">
         <v>200</v>
@@ -16577,26 +16550,26 @@
     </row>
     <row r="24" spans="1:9" ht="60">
       <c r="A24" s="8" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="66" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>109</v>
+        <v>231</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H24" s="66" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I24" s="42">
         <v>200</v>
@@ -16604,26 +16577,26 @@
     </row>
     <row r="25" spans="1:9" ht="60">
       <c r="A25" s="26" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B25" s="77" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="69" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="70" t="s">
-        <v>109</v>
+        <v>231</v>
       </c>
       <c r="G25" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H25" s="69" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I25" s="59">
         <v>200</v>
@@ -16631,26 +16604,26 @@
     </row>
     <row r="26" spans="1:9" ht="150">
       <c r="A26" s="8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B26" s="78" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="66" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F26" s="68" t="s">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="G26" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="42" t="s">
         <v>22</v>
-      </c>
-      <c r="H26" s="42" t="s">
-        <v>23</v>
       </c>
       <c r="I26" s="42">
         <v>200</v>
@@ -16658,24 +16631,24 @@
     </row>
     <row r="27" spans="1:9" ht="150">
       <c r="A27" s="26" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B27" s="80" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="69" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="70" t="s">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="G27" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="69" t="s">
         <v>22</v>
-      </c>
-      <c r="H27" s="69" t="s">
-        <v>23</v>
       </c>
       <c r="I27" s="59">
         <v>200</v>
@@ -16683,24 +16656,24 @@
     </row>
     <row r="28" spans="1:9" ht="150">
       <c r="A28" s="8" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B28" s="78" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="66" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="68" t="s">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="G28" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="42" t="s">
         <v>22</v>
-      </c>
-      <c r="H28" s="42" t="s">
-        <v>23</v>
       </c>
       <c r="I28" s="42">
         <v>200</v>
@@ -16708,24 +16681,24 @@
     </row>
     <row r="29" spans="1:9" ht="105">
       <c r="A29" s="26" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B29" s="80" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="69" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="70" t="s">
-        <v>144</v>
+        <v>233</v>
       </c>
       <c r="G29" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H29" s="69" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I29" s="59">
         <v>200</v>
@@ -16733,24 +16706,24 @@
     </row>
     <row r="30" spans="1:9" ht="120">
       <c r="A30" s="8" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B30" s="78" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="66" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="68" t="s">
-        <v>156</v>
+        <v>234</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H30" s="42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I30" s="42">
         <v>200</v>
@@ -16758,24 +16731,24 @@
     </row>
     <row r="31" spans="1:9" ht="105">
       <c r="A31" s="26" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B31" s="80" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C31" s="22"/>
       <c r="D31" s="69" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="70" t="s">
-        <v>156</v>
+        <v>234</v>
       </c>
       <c r="G31" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H31" s="69" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I31" s="59">
         <v>200</v>
@@ -16783,24 +16756,24 @@
     </row>
     <row r="32" spans="1:9" ht="105">
       <c r="A32" s="8" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B32" s="78" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C32" s="21"/>
       <c r="D32" s="66" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="68" t="s">
-        <v>156</v>
+        <v>234</v>
       </c>
       <c r="G32" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H32" s="42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I32" s="42">
         <v>200</v>
@@ -16808,24 +16781,24 @@
     </row>
     <row r="33" spans="1:9" ht="105">
       <c r="A33" s="26" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B33" s="80" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="69" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="70" t="s">
-        <v>156</v>
+        <v>234</v>
       </c>
       <c r="G33" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H33" s="69" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I33" s="59">
         <v>200</v>
@@ -16833,24 +16806,24 @@
     </row>
     <row r="34" spans="1:9" ht="75">
       <c r="A34" s="8" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B34" s="78" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="66" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="68" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="G34" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H34" s="42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I34" s="42">
         <v>200</v>
@@ -16858,24 +16831,24 @@
     </row>
     <row r="35" spans="1:9" ht="90">
       <c r="A35" s="26" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B35" s="80" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="69" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="E35" s="17"/>
       <c r="F35" s="70" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c r="G35" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H35" s="82" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I35" s="59">
         <v>200</v>
@@ -16883,24 +16856,24 @@
     </row>
     <row r="36" spans="1:9" ht="75">
       <c r="A36" s="8" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="B36" s="78" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C36" s="21"/>
       <c r="D36" s="66" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="68" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c r="G36" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H36" s="42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I36" s="42">
         <v>200</v>
@@ -16908,24 +16881,24 @@
     </row>
     <row r="37" spans="1:9" ht="90">
       <c r="A37" s="26" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B37" s="80" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C37" s="22"/>
       <c r="D37" s="69" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="E37" s="17"/>
       <c r="F37" s="70" t="s">
-        <v>165</v>
+        <v>236</v>
       </c>
       <c r="G37" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H37" s="82" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I37" s="59">
         <v>200</v>
@@ -16933,24 +16906,24 @@
     </row>
     <row r="38" spans="1:9" ht="90">
       <c r="A38" s="50" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B38" s="84" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="C38" s="32"/>
       <c r="D38" s="39" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="E38" s="32"/>
       <c r="F38" s="85" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="G38" s="86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H38" s="84" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I38" s="86">
         <v>200</v>
@@ -16958,24 +16931,24 @@
     </row>
     <row r="39" spans="1:9" ht="105">
       <c r="A39" s="26" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="B39" s="83" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="69" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E39" s="22"/>
       <c r="F39" s="70" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="G39" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H39" s="82" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I39" s="59">
         <v>200</v>
@@ -16983,24 +16956,24 @@
     </row>
     <row r="40" spans="1:9" ht="105">
       <c r="A40" s="26" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="B40" s="83" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C40" s="22"/>
       <c r="D40" s="69" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" s="70" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="G40" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H40" s="82" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I40" s="59">
         <v>200</v>
@@ -17008,24 +16981,24 @@
     </row>
     <row r="41" spans="1:9" ht="105">
       <c r="A41" s="26" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B41" s="83" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C41" s="22"/>
       <c r="D41" s="69" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="E41" s="22"/>
       <c r="F41" s="70" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="G41" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H41" s="82" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I41" s="59">
         <v>200</v>
@@ -17033,24 +17006,24 @@
     </row>
     <row r="42" spans="1:9" ht="90">
       <c r="A42" s="26" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="B42" s="83" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C42" s="22"/>
       <c r="D42" s="69" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="E42" s="22"/>
       <c r="F42" s="70" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="G42" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H42" s="82" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I42" s="59">
         <v>200</v>
@@ -17058,24 +17031,24 @@
     </row>
     <row r="43" spans="1:9" ht="45">
       <c r="A43" s="26" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C43" s="23"/>
       <c r="D43" s="27" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="76" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="G43" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H43" s="27" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="I43" s="59">
         <v>200</v>
@@ -17083,24 +17056,24 @@
     </row>
     <row r="44" spans="1:9" ht="409.6">
       <c r="A44" s="26" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="B44" s="88" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="C44" s="67"/>
       <c r="D44" s="81" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="E44" s="67"/>
       <c r="F44" s="87" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="G44" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="I44" s="59">
         <v>200</v>
@@ -17108,24 +17081,24 @@
     </row>
     <row r="45" spans="1:9" ht="90">
       <c r="A45" s="26" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B45" s="88" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="81" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="87" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="G45" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H45" s="27" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="I45" s="59">
         <v>200</v>
@@ -17133,24 +17106,24 @@
     </row>
     <row r="46" spans="1:9" ht="60">
       <c r="A46" s="26" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="B46" s="88" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="C46" s="23"/>
       <c r="D46" s="27" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="E46" s="23"/>
       <c r="F46" s="76" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="G46" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H46" s="36" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="I46" s="59">
         <v>200</v>
@@ -17158,22 +17131,22 @@
     </row>
     <row r="47" spans="1:9" ht="75">
       <c r="A47" s="71" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="F47" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="G47" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H47" s="40" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I47" s="59">
         <v>200</v>
@@ -17181,22 +17154,22 @@
     </row>
     <row r="48" spans="1:9" ht="409.6">
       <c r="A48" s="71" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="B48" s="74" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="F48" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="G48" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H48" s="79" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="I48" s="59">
         <v>200</v>
@@ -17204,22 +17177,22 @@
     </row>
     <row r="49" spans="1:9" ht="409.6">
       <c r="A49" s="71" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="B49" s="74" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="F49" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="G49" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H49" s="40" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="I49" s="51">
         <v>200</v>
@@ -17227,61 +17200,61 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="71" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="71" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="71" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{708E33A6-B009-0D44-A4D3-6D4ABA388A2E}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{6E456B71-64F7-9149-B0E1-A4108ADF649D}"/>
-    <hyperlink ref="F7" r:id="rId3" xr:uid="{438F72C9-EE69-6144-BC3E-C908C4EADCCB}"/>
-    <hyperlink ref="F9" r:id="rId4" xr:uid="{1EB47B34-1656-A448-B8BE-AAC2DCEB883C}"/>
-    <hyperlink ref="F11" r:id="rId5" xr:uid="{136E3795-FE96-2244-9634-5D763EE64422}"/>
-    <hyperlink ref="F6" r:id="rId6" xr:uid="{9BDB9F12-D04D-DE46-BAB3-73C284450429}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{F788DFF3-EE8E-E34D-8F83-9137D9F8E484}"/>
-    <hyperlink ref="F10" r:id="rId8" xr:uid="{509CCFF3-AF3F-794A-8E02-FD7136BDF9A8}"/>
-    <hyperlink ref="F12" r:id="rId9" xr:uid="{301BC090-53DC-E44E-BB58-1B84487C39F4}"/>
-    <hyperlink ref="F15" r:id="rId10" xr:uid="{2017A1D3-C678-5148-B5AC-C3910D15A84D}"/>
-    <hyperlink ref="F14" r:id="rId11" xr:uid="{4FC31C5A-A77A-8243-8DB2-D1ED5ACD33D0}"/>
-    <hyperlink ref="F13" r:id="rId12" xr:uid="{019A12BE-2AC5-DE49-81C1-233F2AE60A91}"/>
+    <hyperlink ref="F5" r:id="rId1" display="http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuByInfo" xr:uid="{708E33A6-B009-0D44-A4D3-6D4ABA388A2E}"/>
+    <hyperlink ref="F4" r:id="rId2" display="http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuByInfo" xr:uid="{6E456B71-64F7-9149-B0E1-A4108ADF649D}"/>
+    <hyperlink ref="F7" r:id="rId3" display="http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuByInfo" xr:uid="{438F72C9-EE69-6144-BC3E-C908C4EADCCB}"/>
+    <hyperlink ref="F9" r:id="rId4" display="http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuByInfo" xr:uid="{1EB47B34-1656-A448-B8BE-AAC2DCEB883C}"/>
+    <hyperlink ref="F11" r:id="rId5" display="http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuByInfo" xr:uid="{136E3795-FE96-2244-9634-5D763EE64422}"/>
+    <hyperlink ref="F6" r:id="rId6" display="http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuByInfo" xr:uid="{9BDB9F12-D04D-DE46-BAB3-73C284450429}"/>
+    <hyperlink ref="F8" r:id="rId7" display="http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuByInfo" xr:uid="{F788DFF3-EE8E-E34D-8F83-9137D9F8E484}"/>
+    <hyperlink ref="F10" r:id="rId8" display="http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuByInfo" xr:uid="{509CCFF3-AF3F-794A-8E02-FD7136BDF9A8}"/>
+    <hyperlink ref="F12" r:id="rId9" display="http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuByInfo" xr:uid="{301BC090-53DC-E44E-BB58-1B84487C39F4}"/>
+    <hyperlink ref="F15" r:id="rId10" display="http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuOfAtten" xr:uid="{2017A1D3-C678-5148-B5AC-C3910D15A84D}"/>
+    <hyperlink ref="F14" r:id="rId11" display="http://192.168.114.220:8080/WoniuBoss2.5/second?vp=woniu123" xr:uid="{4FC31C5A-A77A-8243-8DB2-D1ED5ACD33D0}"/>
+    <hyperlink ref="F13" r:id="rId12" display="http://192.168.114.220:8080/WoniuBoss2.5/second" xr:uid="{019A12BE-2AC5-DE49-81C1-233F2AE60A91}"/>
     <hyperlink ref="H13" r:id="rId13" display="http://192.168.114.220:8080/WoniuBoss2.5/second?vp=ee" xr:uid="{59983EC8-24CA-134E-9FC2-699162ED87F9}"/>
-    <hyperlink ref="F18" r:id="rId14" xr:uid="{F98BCEBB-6214-1946-A220-FF8CBECDA5BE}"/>
-    <hyperlink ref="F19" r:id="rId15" xr:uid="{BF2EB22B-C368-EF4E-9BA5-3C422BF4A25B}"/>
-    <hyperlink ref="F20" r:id="rId16" xr:uid="{670B3D48-A243-8E47-9782-122A79827D8D}"/>
-    <hyperlink ref="F21" r:id="rId17" xr:uid="{B19D900A-AB2B-354F-BC88-6C2568FA9C61}"/>
-    <hyperlink ref="F22" r:id="rId18" xr:uid="{B6F86BCC-4164-A347-8B9C-DB436A920CA5}"/>
-    <hyperlink ref="F23" r:id="rId19" xr:uid="{5F547A12-8ACA-1647-8DC8-D3CE15ABF968}"/>
-    <hyperlink ref="F24" r:id="rId20" xr:uid="{338BCF75-B249-FD42-9E03-5DB104BA6359}"/>
-    <hyperlink ref="F25" r:id="rId21" xr:uid="{F4BB4557-24FA-E64B-99F0-631A5CD83FD9}"/>
-    <hyperlink ref="F26" r:id="rId22" xr:uid="{0C5B6C46-703D-444F-8F51-F4E66472A823}"/>
-    <hyperlink ref="F29" r:id="rId23" xr:uid="{0DC67608-C8E5-6C49-A1A8-C3A32FA839E8}"/>
-    <hyperlink ref="F28" r:id="rId24" xr:uid="{CE615689-8483-DE41-8B6C-0108C5E8CF02}"/>
-    <hyperlink ref="F27" r:id="rId25" xr:uid="{5F9CE976-97D0-634E-933C-DA4B46315A87}"/>
-    <hyperlink ref="F33" r:id="rId26" xr:uid="{040850C3-3B9C-084D-A6FB-8778D84D7815}"/>
-    <hyperlink ref="F32" r:id="rId27" xr:uid="{913E2233-46F0-0542-9401-D385FF634EE5}"/>
-    <hyperlink ref="F31" r:id="rId28" xr:uid="{8CC31DB6-B254-354A-8B72-37A733985E5F}"/>
-    <hyperlink ref="F30" r:id="rId29" xr:uid="{A3E39CA6-8E1A-144B-8264-668A29F1F1F9}"/>
-    <hyperlink ref="F34" r:id="rId30" xr:uid="{99F14B4E-038E-A14E-97A2-FD494A252277}"/>
-    <hyperlink ref="F38" r:id="rId31" xr:uid="{5D1F9E35-5730-5748-B157-AA0965251E23}"/>
-    <hyperlink ref="F39" r:id="rId32" xr:uid="{CB054640-0937-284E-A703-326291237191}"/>
-    <hyperlink ref="F40" r:id="rId33" xr:uid="{3043C6E0-18DB-2D42-811F-3D50D767A6FF}"/>
-    <hyperlink ref="F41" r:id="rId34" xr:uid="{F15C1AE7-CC5E-D348-BB9B-38ECD8C49DC2}"/>
-    <hyperlink ref="F42" r:id="rId35" xr:uid="{4C670C0C-A138-7449-AD38-4BBA6542C61C}"/>
-    <hyperlink ref="F43" r:id="rId36" xr:uid="{A99400FA-5455-7844-A00D-A2232E2C519D}"/>
-    <hyperlink ref="F44" r:id="rId37" xr:uid="{6E16BBF3-A7CB-E744-A922-5EA6DB4C0AC9}"/>
-    <hyperlink ref="F45" r:id="rId38" xr:uid="{747531CE-6168-A042-888C-0BBFD459B84B}"/>
-    <hyperlink ref="F46" r:id="rId39" xr:uid="{C5DA1E9F-C8CD-5948-BDE1-7CD330F2623D}"/>
+    <hyperlink ref="F18" r:id="rId14" display="http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuOfMornExam" xr:uid="{F98BCEBB-6214-1946-A220-FF8CBECDA5BE}"/>
+    <hyperlink ref="F19" r:id="rId15" display="http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuOfMornExam" xr:uid="{BF2EB22B-C368-EF4E-9BA5-3C422BF4A25B}"/>
+    <hyperlink ref="F20" r:id="rId16" display="http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuOfMornExam" xr:uid="{670B3D48-A243-8E47-9782-122A79827D8D}"/>
+    <hyperlink ref="F21" r:id="rId17" display="http://192.168.114.220:8080/WoniuBoss2.5/student/queryLeave" xr:uid="{B19D900A-AB2B-354F-BC88-6C2568FA9C61}"/>
+    <hyperlink ref="F22" r:id="rId18" display="http://192.168.114.220:8080/WoniuBoss2.5/student/queryLeave" xr:uid="{B6F86BCC-4164-A347-8B9C-DB436A920CA5}"/>
+    <hyperlink ref="F23" r:id="rId19" display="http://192.168.114.220:8080/WoniuBoss2.5/student/queryLeave" xr:uid="{5F547A12-8ACA-1647-8DC8-D3CE15ABF968}"/>
+    <hyperlink ref="F24" r:id="rId20" display="http://192.168.114.220:8080/WoniuBoss2.5/student/queryLeave" xr:uid="{338BCF75-B249-FD42-9E03-5DB104BA6359}"/>
+    <hyperlink ref="F25" r:id="rId21" display="http://192.168.114.220:8080/WoniuBoss2.5/student/queryLeave" xr:uid="{F4BB4557-24FA-E64B-99F0-631A5CD83FD9}"/>
+    <hyperlink ref="F26" r:id="rId22" display="http://192.168.114.220:8080/WoniuBoss2.5/student/saveLeave" xr:uid="{0C5B6C46-703D-444F-8F51-F4E66472A823}"/>
+    <hyperlink ref="F29" r:id="rId23" display="http://192.168.114.220:8080/WoniuBoss2.5/student/queryAtteResult1" xr:uid="{0DC67608-C8E5-6C49-A1A8-C3A32FA839E8}"/>
+    <hyperlink ref="F28" r:id="rId24" display="http://192.168.114.220:8080/WoniuBoss2.5/student/saveLeave" xr:uid="{CE615689-8483-DE41-8B6C-0108C5E8CF02}"/>
+    <hyperlink ref="F27" r:id="rId25" display="http://192.168.114.220:8080/WoniuBoss2.5/student/saveLeave" xr:uid="{5F9CE976-97D0-634E-933C-DA4B46315A87}"/>
+    <hyperlink ref="F33" r:id="rId26" display="http://192.168.114.220:8080/WoniuBoss2.5/student/queryAtteResult" xr:uid="{040850C3-3B9C-084D-A6FB-8778D84D7815}"/>
+    <hyperlink ref="F32" r:id="rId27" display="http://192.168.114.220:8080/WoniuBoss2.5/student/queryAtteResult" xr:uid="{913E2233-46F0-0542-9401-D385FF634EE5}"/>
+    <hyperlink ref="F31" r:id="rId28" display="http://192.168.114.220:8080/WoniuBoss2.5/student/queryAtteResult" xr:uid="{8CC31DB6-B254-354A-8B72-37A733985E5F}"/>
+    <hyperlink ref="F30" r:id="rId29" display="http://192.168.114.220:8080/WoniuBoss2.5/student/queryAtteResult" xr:uid="{A3E39CA6-8E1A-144B-8264-668A29F1F1F9}"/>
+    <hyperlink ref="F34" r:id="rId30" display="http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuOfTeacher" xr:uid="{99F14B4E-038E-A14E-97A2-FD494A252277}"/>
+    <hyperlink ref="F38" r:id="rId31" display="http://192.168.114.220:8080/WoniuBoss2.5/student/showPhaseExam1" xr:uid="{5D1F9E35-5730-5748-B157-AA0965251E23}"/>
+    <hyperlink ref="F39" r:id="rId32" display="http://192.168.114.220:8080/WoniuBoss2.5/student/showPhaseExam" xr:uid="{CB054640-0937-284E-A703-326291237191}"/>
+    <hyperlink ref="F40" r:id="rId33" display="http://192.168.114.220:8080/WoniuBoss2.5/student/showPhaseExam" xr:uid="{3043C6E0-18DB-2D42-811F-3D50D767A6FF}"/>
+    <hyperlink ref="F41" r:id="rId34" display="http://192.168.114.220:8080/WoniuBoss2.5/student/showPhaseExam" xr:uid="{F15C1AE7-CC5E-D348-BB9B-38ECD8C49DC2}"/>
+    <hyperlink ref="F42" r:id="rId35" display="http://192.168.114.220:8080/WoniuBoss2.5/student/showPhaseExam" xr:uid="{4C670C0C-A138-7449-AD38-4BBA6542C61C}"/>
+    <hyperlink ref="F43" r:id="rId36" display="http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuOfTeacher" xr:uid="{A99400FA-5455-7844-A00D-A2232E2C519D}"/>
+    <hyperlink ref="F44" r:id="rId37" display="http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuOfClassByInfo" xr:uid="{6E16BBF3-A7CB-E744-A922-5EA6DB4C0AC9}"/>
+    <hyperlink ref="F45" r:id="rId38" display="http://192.168.114.220:8080/WoniuBoss2.5/student/queryStuOfClassByInfo" xr:uid="{747531CE-6168-A042-888C-0BBFD459B84B}"/>
+    <hyperlink ref="F46" r:id="rId39" display="http://192.168.114.220:8080/WoniuBoss2.5/student/allocate" xr:uid="{C5DA1E9F-C8CD-5948-BDE1-7CD330F2623D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -17292,8 +17265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D24470D-AAED-D348-B2EA-0D449E4A8E33}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -17332,34 +17305,34 @@
         <v>19</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I1" s="90" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="26" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C2" s="92"/>
       <c r="D2" s="20" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>86</v>
+        <v>223</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="93" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I2" s="59">
         <v>200</v>
@@ -17367,26 +17340,26 @@
     </row>
     <row r="3" spans="1:9" ht="15">
       <c r="A3" s="8" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="B3" s="60" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>75</v>
+        <v>224</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H3" s="62" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I3" s="42">
         <v>200</v>
@@ -17394,24 +17367,24 @@
     </row>
     <row r="4" spans="1:9" ht="409.6">
       <c r="A4" s="67" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="C4" s="67"/>
       <c r="D4" s="81" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="E4" s="67"/>
       <c r="F4" s="87" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G4" s="67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="81" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="I4" s="37">
         <v>200</v>
@@ -17419,24 +17392,24 @@
     </row>
     <row r="5" spans="1:9" ht="409.6">
       <c r="A5" s="67" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="81" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="87" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G5" s="67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="94" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="I5" s="37">
         <v>200</v>
@@ -17444,24 +17417,24 @@
     </row>
     <row r="6" spans="1:9" ht="409.6">
       <c r="A6" s="67" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="B6" s="95" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="81" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="87" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G6" s="67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="I6" s="59">
         <v>200</v>
@@ -17469,24 +17442,24 @@
     </row>
     <row r="7" spans="1:9" ht="409.6">
       <c r="A7" s="67" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="B7" s="95" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="81" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="87" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G7" s="67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="I7" s="59">
         <v>200</v>
@@ -17498,13 +17471,13 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{21818423-9413-354B-9EC8-1D431724DA3B}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{3EAFB774-D461-D943-893A-D23ECACD8272}"/>
+    <hyperlink ref="F3" r:id="rId1" display="http://192.168.114.220:8080/WoniuBoss2.5/second?vp=woniu123" xr:uid="{21818423-9413-354B-9EC8-1D431724DA3B}"/>
+    <hyperlink ref="F2" r:id="rId2" display="http://192.168.114.220:8080/WoniuBoss2.5/second" xr:uid="{3EAFB774-D461-D943-893A-D23ECACD8272}"/>
     <hyperlink ref="H2" r:id="rId3" display="http://192.168.114.220:8080/WoniuBoss2.5/second?vp=ee" xr:uid="{C7FA4452-8CFB-8042-B92D-C6110983E1B3}"/>
-    <hyperlink ref="F4" r:id="rId4" xr:uid="{B21D6780-3029-4B4D-B617-70DB667C6103}"/>
-    <hyperlink ref="F5" r:id="rId5" xr:uid="{14EC56E3-32E5-4F4B-B3A9-18983A64773C}"/>
-    <hyperlink ref="F6" r:id="rId6" xr:uid="{72FC3AFC-8789-BE43-8CA6-B69C88CA6CC1}"/>
-    <hyperlink ref="F7" r:id="rId7" xr:uid="{2818DC8C-A342-0041-B69A-9BC9E945A78E}"/>
+    <hyperlink ref="F4" r:id="rId4" display="http://192.168.114.220:8080/WoniuBoss2.5/resource/queryCusByCusInfo" xr:uid="{B21D6780-3029-4B4D-B617-70DB667C6103}"/>
+    <hyperlink ref="F5" r:id="rId5" display="http://192.168.114.220:8080/WoniuBoss2.5/resource/queryCusByCusInfo" xr:uid="{14EC56E3-32E5-4F4B-B3A9-18983A64773C}"/>
+    <hyperlink ref="F6" r:id="rId6" display="http://192.168.114.220:8080/WoniuBoss2.5/resource/queryCusByCusInfo" xr:uid="{72FC3AFC-8789-BE43-8CA6-B69C88CA6CC1}"/>
+    <hyperlink ref="F7" r:id="rId7" display="http://192.168.114.220:8080/WoniuBoss2.5/resource/queryCusByCusInfo" xr:uid="{2818DC8C-A342-0041-B69A-9BC9E945A78E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/woniuBoss/data/woniuBoss_test_cases.xlsx
+++ b/woniuBoss/data/woniuBoss_test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zilong/Documents/蜗牛Boss测试/Git/woniuBoss/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD9E48C-01F1-8B43-86A5-CC8050CDAE02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687DEF2F-EC97-EF4C-96BA-C3967D061E9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2200" windowWidth="30720" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="2200" windowWidth="30720" windowHeight="17220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -14718,67 +14718,67 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.9.10:8080/WoniuBoss2.5/second</t>
-  </si>
-  <si>
-    <t>http://192.168.9.10:8080/WoniuBoss2.5/second?vp=woniu123</t>
-  </si>
-  <si>
-    <t>http://192.168.9.10:8080/WoniuBoss2.5/resource/queryCusByCusInfo</t>
-  </si>
-  <si>
-    <t>http://192.168.9.10:8080/WoniuBoss2.5/student</t>
-  </si>
-  <si>
-    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/queryStuInfo</t>
-  </si>
-  <si>
-    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/queryStuByInfo</t>
-  </si>
-  <si>
-    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/queryStuOfAtten</t>
-  </si>
-  <si>
-    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/queryStuOfMornExam</t>
-  </si>
-  <si>
-    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/queryLeave</t>
-  </si>
-  <si>
-    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/saveLeave</t>
-  </si>
-  <si>
-    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/queryAtteResult1</t>
-  </si>
-  <si>
-    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/queryAtteResult</t>
-  </si>
-  <si>
-    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/queryStuOfTeacher</t>
-  </si>
-  <si>
-    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/queryPhaseExamStuByInfo</t>
-  </si>
-  <si>
-    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/showPhaseExam1</t>
-  </si>
-  <si>
-    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/showPhaseExam</t>
-  </si>
-  <si>
-    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/queryStuOfClassByInfo</t>
-  </si>
-  <si>
-    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/allocate</t>
-  </si>
-  <si>
-    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/queryCourse</t>
-  </si>
-  <si>
-    <t>http://192.168.9.10:8080/WoniuBoss2.5/student/queryCourseByInfo</t>
-  </si>
-  <si>
-    <t>http://192.168.9.10:8080/WoniuBoss2.5/log/userLogin</t>
+    <t>http://192.168.9.90:8080/WoniuBoss2.5/log/userLogin</t>
+  </si>
+  <si>
+    <t>http://192.168.9.90:8080/WoniuBoss2.5/student</t>
+  </si>
+  <si>
+    <t>http://192.168.9.90:8080/WoniuBoss2.5/student/queryStuInfo</t>
+  </si>
+  <si>
+    <t>http://192.168.9.90:8080/WoniuBoss2.5/student/queryStuByInfo</t>
+  </si>
+  <si>
+    <t>http://192.168.9.90:8080/WoniuBoss2.5/second</t>
+  </si>
+  <si>
+    <t>http://192.168.9.90:8080/WoniuBoss2.5/second?vp=woniu123</t>
+  </si>
+  <si>
+    <t>http://192.168.9.90:8080/WoniuBoss2.5/student/queryStuOfAtten</t>
+  </si>
+  <si>
+    <t>http://192.168.9.90:8080/WoniuBoss2.5/student/queryStuOfMornExam</t>
+  </si>
+  <si>
+    <t>http://192.168.9.90:8080/WoniuBoss2.5/student/queryLeave</t>
+  </si>
+  <si>
+    <t>http://192.168.9.90:8080/WoniuBoss2.5/student/saveLeave</t>
+  </si>
+  <si>
+    <t>http://192.168.9.90:8080/WoniuBoss2.5/student/queryAtteResult1</t>
+  </si>
+  <si>
+    <t>http://192.168.9.90:8080/WoniuBoss2.5/student/queryAtteResult</t>
+  </si>
+  <si>
+    <t>http://192.168.9.90:8080/WoniuBoss2.5/student/queryStuOfTeacher</t>
+  </si>
+  <si>
+    <t>http://192.168.9.90:8080/WoniuBoss2.5/student/queryPhaseExamStuByInfo</t>
+  </si>
+  <si>
+    <t>http://192.168.9.90:8080/WoniuBoss2.5/student/showPhaseExam1</t>
+  </si>
+  <si>
+    <t>http://192.168.9.90:8080/WoniuBoss2.5/student/showPhaseExam</t>
+  </si>
+  <si>
+    <t>http://192.168.9.90:8080/WoniuBoss2.5/student/queryStuOfClassByInfo</t>
+  </si>
+  <si>
+    <t>http://192.168.9.90:8080/WoniuBoss2.5/student/allocate</t>
+  </si>
+  <si>
+    <t>http://192.168.9.90:8080/WoniuBoss2.5/student/queryCourse</t>
+  </si>
+  <si>
+    <t>http://192.168.9.90:8080/WoniuBoss2.5/student/queryCourseByInfo</t>
+  </si>
+  <si>
+    <t>http://192.168.9.90:8080/WoniuBoss2.5/resource/queryCusByCusInfo</t>
   </si>
 </sst>
 </file>
@@ -15611,8 +15611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="F1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -15671,7 +15671,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>21</v>
@@ -15698,7 +15698,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="G3" s="23" t="s">
         <v>21</v>
@@ -15725,7 +15725,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>21</v>
@@ -15752,7 +15752,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="G5" s="23" t="s">
         <v>21</v>
@@ -15779,7 +15779,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>21</v>
@@ -15970,7 +15970,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G2" s="32" t="s">
         <v>31</v>
@@ -15995,7 +15995,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>21</v>
@@ -16022,7 +16022,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G4" s="38" t="s">
         <v>21</v>
@@ -16049,7 +16049,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G5" s="37" t="s">
         <v>21</v>
@@ -16076,7 +16076,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="49" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G6" s="38" t="s">
         <v>21</v>
@@ -16103,7 +16103,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G7" s="37" t="s">
         <v>21</v>
@@ -16130,7 +16130,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G8" s="38" t="s">
         <v>21</v>
@@ -16157,7 +16157,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G9" s="37" t="s">
         <v>21</v>
@@ -16184,7 +16184,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="49" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G10" s="38" t="s">
         <v>21</v>
@@ -16211,7 +16211,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G11" s="37" t="s">
         <v>21</v>
@@ -16238,7 +16238,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="49" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G12" s="38" t="s">
         <v>21</v>
@@ -16265,7 +16265,7 @@
         <v>77</v>
       </c>
       <c r="F13" s="56" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G13" s="57" t="s">
         <v>21</v>
@@ -16293,7 +16293,7 @@
         <v>15</v>
       </c>
       <c r="F14" s="61" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G14" s="42" t="s">
         <v>21</v>
@@ -17265,7 +17265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D24470D-AAED-D348-B2EA-0D449E4A8E33}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -17326,7 +17326,7 @@
         <v>77</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G2" s="59" t="s">
         <v>21</v>
@@ -17353,7 +17353,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G3" s="42" t="s">
         <v>21</v>
@@ -17378,7 +17378,7 @@
       </c>
       <c r="E4" s="67"/>
       <c r="F4" s="87" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="G4" s="67" t="s">
         <v>21</v>
@@ -17403,7 +17403,7 @@
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="87" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="G5" s="67" t="s">
         <v>21</v>
@@ -17428,7 +17428,7 @@
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="87" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="G6" s="67" t="s">
         <v>21</v>
@@ -17453,7 +17453,7 @@
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="87" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="G7" s="67" t="s">
         <v>21</v>
